--- a/单片机类毕业设计题目汇总.xlsx
+++ b/单片机类毕业设计题目汇总.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13530" windowHeight="13230"/>
+    <workbookView windowWidth="26805" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="单片机类毕业设计题目" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">单片机类毕业设计题目!$A$1:$A$756</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">单片机类毕业设计题目!$A$1:$A$742</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743">
   <si>
     <t>题目</t>
   </si>
@@ -116,15 +116,9 @@
     <t>80C196MC控制的交流变频调速系统设计</t>
   </si>
   <si>
-    <t>87C196MC单片机最小系统单路模板的设计与开发</t>
-  </si>
-  <si>
     <t>87C196MC单片机最小系统单板电路模板的设计与开发</t>
   </si>
   <si>
-    <t>AT89S52单片机实验系统的开发与应用</t>
-  </si>
-  <si>
     <t>ATMEILAT89系列通用单片机编程器的设计</t>
   </si>
   <si>
@@ -344,9 +338,6 @@
     <t>单片机的数字电压表设计</t>
   </si>
   <si>
-    <t>单片机的水温控制系统</t>
-  </si>
-  <si>
     <t>单片机的语音存储与重放的研究</t>
   </si>
   <si>
@@ -365,12 +356,6 @@
     <t>单片机对玩具小车的智能控制设计</t>
   </si>
   <si>
-    <t>单片机呼叫系统的设计</t>
-  </si>
-  <si>
-    <t>单片机教学实验板--软件设计</t>
-  </si>
-  <si>
     <t>单片机控制PWM直流可逆调速系统设计</t>
   </si>
   <si>
@@ -404,7 +389,7 @@
     <t>单片机汽车倒车测距仪</t>
   </si>
   <si>
-    <t>单片机实验教学平台分析</t>
+    <t>单片机实验教学平台</t>
   </si>
   <si>
     <t>单片机数字电压表的设计</t>
@@ -1070,9 +1055,6 @@
     <t>基于单片机的火灾报警器</t>
   </si>
   <si>
-    <t>基于单片机的火灾自动报警系统</t>
-  </si>
-  <si>
     <t>基于单片机的机械通风控制器设计</t>
   </si>
   <si>
@@ -1124,9 +1106,6 @@
     <t>基于单片机的乳粉包装称重控制系统设计</t>
   </si>
   <si>
-    <t>基于单片机的乳粉包装称重控制系统设计220</t>
-  </si>
-  <si>
     <t>基于单片机的室内一氧化碳监测及报警系统的研究</t>
   </si>
   <si>
@@ -1559,9 +1538,6 @@
     <t>论专家系统</t>
   </si>
   <si>
-    <t>论专家系统439</t>
-  </si>
-  <si>
     <t>论自动测试系统设计的几个问题</t>
   </si>
   <si>
@@ -1721,15 +1697,6 @@
     <t>人体健康监测系统设计</t>
   </si>
   <si>
-    <t>认知无线电网络的频谱分配算法</t>
-  </si>
-  <si>
-    <t>认知无线网络基于合作检测的频谱感知算法</t>
-  </si>
-  <si>
-    <t>认知无线网络基于信道统计特征的频谱感知算法</t>
-  </si>
-  <si>
     <t>软开关技术在变频器中的应用</t>
   </si>
   <si>
@@ -1799,9 +1766,6 @@
     <t>数字电容测量仪的设计</t>
   </si>
   <si>
-    <t>数字电压表的设计</t>
-  </si>
-  <si>
     <t>数字电压表设计</t>
   </si>
   <si>
@@ -1814,13 +1778,7 @@
     <t>数字流量计</t>
   </si>
   <si>
-    <t>数字频率计</t>
-  </si>
-  <si>
     <t>数字频率计课程设计</t>
-  </si>
-  <si>
-    <t>数字频率计毕业设计论文</t>
   </si>
   <si>
     <t>数字人体心率检测仪的设计</t>
@@ -2296,10 +2254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2336,19 +2294,41 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2360,8 +2340,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2375,28 +2378,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2404,15 +2386,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2427,32 +2402,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2474,7 +2432,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2495,7 +2453,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2507,49 +2585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2561,25 +2603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2597,85 +2621,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2704,26 +2662,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2733,6 +2682,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2752,32 +2716,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2790,27 +2759,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2819,133 +2777,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3308,11 +3266,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B756"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B742"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="A466" sqref="A466"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A728" sqref="A728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -3326,743 +3284,744 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" hidden="1" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" hidden="1" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" hidden="1" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" hidden="1" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" hidden="1" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" hidden="1" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" hidden="1" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" hidden="1" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" hidden="1" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" hidden="1" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" hidden="1" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" hidden="1" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" hidden="1" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" hidden="1" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" hidden="1" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" hidden="1" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" hidden="1" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" hidden="1" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" hidden="1" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" hidden="1" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" hidden="1" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" hidden="1" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" hidden="1" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" hidden="1" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" hidden="1" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" hidden="1" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" hidden="1" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" hidden="1" spans="1:2">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" hidden="1" spans="1:2">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" hidden="1" spans="1:2">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" hidden="1" spans="1:2">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
+    <row r="33" hidden="1" spans="1:2">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B33"/>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+    <row r="34" hidden="1" spans="1:2">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" hidden="1" spans="1:2">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35"/>
+    </row>
+    <row r="36" hidden="1" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" hidden="1" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" hidden="1" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" hidden="1" spans="1:2">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" hidden="1" spans="1:2">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" hidden="1" spans="1:2">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" hidden="1" spans="1:2">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" hidden="1" spans="1:2">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" hidden="1" spans="1:2">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" hidden="1" spans="1:2">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" hidden="1" spans="1:2">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" hidden="1" spans="1:2">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" hidden="1" spans="1:2">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" hidden="1" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" hidden="1" spans="1:2">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" hidden="1" spans="1:1">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:2">
+    </row>
+    <row r="52" hidden="1" spans="1:2">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B52"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" hidden="1" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="B53"/>
+    </row>
+    <row r="54" hidden="1" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" hidden="1" spans="1:2">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" hidden="1" spans="1:2">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" hidden="1" spans="1:2">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B57"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" hidden="1" spans="1:2">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B58"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" hidden="1" spans="1:2">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B59"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" hidden="1" spans="1:2">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B60"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" hidden="1" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" hidden="1" spans="1:2">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B62"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" hidden="1" spans="1:2">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B63"/>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="3" t="s">
+    <row r="64" hidden="1" spans="1:2">
+      <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" hidden="1" spans="1:2">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B65"/>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="4" t="s">
+    <row r="66" hidden="1" spans="1:2">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" hidden="1" spans="1:2">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B67"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" hidden="1" spans="1:2">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" hidden="1" spans="1:2">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B69"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" hidden="1" spans="1:2">
       <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" hidden="1" spans="1:2">
       <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B71"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" hidden="1" spans="1:2">
       <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" hidden="1" spans="1:2">
       <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B73"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" hidden="1" spans="1:2">
       <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" hidden="1" spans="1:2">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B75"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" hidden="1" spans="1:2">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" hidden="1" spans="1:2">
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B77"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" hidden="1" spans="1:2">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" hidden="1" spans="1:2">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B79"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" hidden="1" spans="1:2">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" hidden="1" spans="1:2">
       <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B81"/>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="3" t="s">
+    <row r="82" hidden="1" spans="1:2">
+      <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="3" t="s">
+    <row r="83" hidden="1" spans="1:2">
+      <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" hidden="1" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" hidden="1" spans="1:2">
       <c r="A85" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B85"/>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="4" t="s">
+    <row r="86" hidden="1" spans="1:2">
+      <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="5" t="s">
+    <row r="87" hidden="1" spans="1:2">
+      <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" hidden="1" spans="1:2">
       <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" hidden="1" spans="1:2">
       <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" hidden="1" spans="1:2">
       <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" hidden="1" spans="1:2">
       <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" hidden="1" spans="1:2">
       <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" hidden="1" spans="1:2">
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B93"/>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="3" t="s">
+    <row r="94" hidden="1" spans="1:2">
+      <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" hidden="1" spans="1:2">
       <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B95"/>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="5" t="s">
+    <row r="96" hidden="1" spans="1:2">
+      <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="3" t="s">
+    <row r="97" hidden="1" spans="1:2">
+      <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B97"/>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="3" t="s">
+    <row r="98" hidden="1" spans="1:2">
+      <c r="A98" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="4" t="s">
+    <row r="99" hidden="1" spans="1:2">
+      <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B99"/>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="5" t="s">
+    <row r="100" hidden="1" spans="1:2">
+      <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="3" t="s">
+    <row r="101" hidden="1" spans="1:2">
+      <c r="A101" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B101"/>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="3" t="s">
+    <row r="102" hidden="1" spans="1:2">
+      <c r="A102" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" hidden="1" spans="1:2">
       <c r="A103" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" hidden="1" spans="1:2">
       <c r="A104" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" hidden="1" spans="1:2">
       <c r="A105" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" hidden="1" spans="1:2">
       <c r="A106" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" hidden="1" spans="1:2">
       <c r="A107" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" hidden="1" spans="1:2">
       <c r="A108" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" hidden="1" spans="1:2">
       <c r="A109" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" hidden="1" spans="1:2">
       <c r="A110" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" hidden="1" spans="1:2">
       <c r="A111" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" hidden="1" spans="1:2">
       <c r="A112" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="4" t="s">
+    <row r="113" hidden="1" spans="1:2">
+      <c r="A113" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" hidden="1" spans="1:2">
       <c r="A114" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" hidden="1" spans="1:2">
       <c r="A115" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" hidden="1" spans="1:2">
       <c r="A116" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" hidden="1" spans="1:2">
       <c r="A117" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B117"/>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="5" t="s">
+    <row r="118" hidden="1" spans="1:2">
+      <c r="A118" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" hidden="1" spans="1:2">
       <c r="A119" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" hidden="1" spans="1:2">
       <c r="A120" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" hidden="1" spans="1:2">
       <c r="A121" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B121"/>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="5" t="s">
+    <row r="122" hidden="1" spans="1:2">
+      <c r="A122" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" hidden="1" spans="1:2">
       <c r="A123" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" hidden="1" spans="1:2">
       <c r="A124" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" hidden="1" spans="1:2">
       <c r="A125" s="4" t="s">
         <v>124</v>
       </c>
@@ -4074,278 +4033,278 @@
       </c>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" hidden="1" spans="1:2">
       <c r="A127" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" hidden="1" spans="1:2">
       <c r="A128" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" hidden="1" spans="1:2">
       <c r="A129" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B129"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" hidden="1" spans="1:2">
       <c r="A130" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" hidden="1" spans="1:2">
       <c r="A131" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B131"/>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="4" t="s">
+    <row r="132" hidden="1" spans="1:2">
+      <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" hidden="1" spans="1:2">
       <c r="A133" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B133"/>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="4" t="s">
+    <row r="134" hidden="1" spans="1:2">
+      <c r="A134" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="4" t="s">
+    <row r="135" hidden="1" spans="1:2">
+      <c r="A135" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B135"/>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="4" t="s">
+    <row r="136" hidden="1" spans="1:2">
+      <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="3" t="s">
+    <row r="137" hidden="1" spans="1:2">
+      <c r="A137" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B137"/>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="4" t="s">
+    <row r="138" hidden="1" spans="1:2">
+      <c r="A138" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="5" t="s">
+    <row r="139" hidden="1" spans="1:2">
+      <c r="A139" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B139"/>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="5" t="s">
+    <row r="140" hidden="1" spans="1:2">
+      <c r="A140" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" hidden="1" spans="1:2">
       <c r="A141" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B141"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" hidden="1" spans="1:2">
       <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" hidden="1" spans="1:2">
       <c r="A143" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B143"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" hidden="1" spans="1:2">
       <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="4" t="s">
+    <row r="145" hidden="1" spans="1:2">
+      <c r="A145" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" hidden="1" spans="1:2">
       <c r="A146" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="5" t="s">
+    <row r="147" hidden="1" spans="1:2">
+      <c r="A147" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" hidden="1" spans="1:2">
       <c r="A148" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" hidden="1" spans="1:2">
       <c r="A149" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" hidden="1" spans="1:2">
       <c r="A150" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" hidden="1" spans="1:2">
       <c r="A151" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" hidden="1" spans="1:2">
       <c r="A152" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" hidden="1" spans="1:2">
       <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" hidden="1" spans="1:2">
       <c r="A154" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" hidden="1" spans="1:2">
       <c r="A155" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" hidden="1" spans="1:2">
       <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" hidden="1" spans="1:2">
       <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" hidden="1" spans="1:2">
       <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" hidden="1" spans="1:2">
       <c r="A159" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" hidden="1" spans="1:2">
       <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" hidden="1" spans="1:2">
       <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" hidden="1" spans="1:2">
       <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" hidden="1" spans="1:2">
       <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" hidden="1" spans="1:2">
       <c r="A164" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" hidden="1" spans="1:2">
       <c r="A165" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" hidden="1" spans="1:2">
       <c r="A166" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" hidden="1" spans="1:2">
       <c r="A167" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B167"/>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="3" t="s">
+    <row r="168" hidden="1" spans="1:2">
+      <c r="A168" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" hidden="1" spans="1:2">
       <c r="A169" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B169"/>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="3" t="s">
+    <row r="170" hidden="1" spans="1:2">
+      <c r="A170" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" hidden="1" spans="1:2">
       <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B171"/>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="3" t="s">
+    <row r="172" hidden="1" spans="1:2">
+      <c r="A172" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B172"/>
@@ -4356,104 +4315,104 @@
       </c>
       <c r="B173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" hidden="1" spans="1:2">
       <c r="A174" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="4" t="s">
+    <row r="175" hidden="1" spans="1:2">
+      <c r="A175" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" hidden="1" spans="1:2">
       <c r="A176" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="5" t="s">
+    <row r="177" hidden="1" spans="1:2">
+      <c r="A177" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B177"/>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="4" t="s">
+    <row r="178" hidden="1" spans="1:2">
+      <c r="A178" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" hidden="1" spans="1:2">
       <c r="A179" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B179"/>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="5" t="s">
+    <row r="180" hidden="1" spans="1:2">
+      <c r="A180" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" hidden="1" spans="1:2">
       <c r="A181" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B181"/>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="3" t="s">
+    <row r="182" hidden="1" spans="1:2">
+      <c r="A182" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" hidden="1" spans="1:2">
       <c r="A183" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B183"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" hidden="1" spans="1:2">
       <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" hidden="1" spans="1:2">
       <c r="A185" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B185"/>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="3" t="s">
+    <row r="186" hidden="1" spans="1:2">
+      <c r="A186" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="4" t="s">
+    <row r="187" hidden="1" spans="1:2">
+      <c r="A187" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B187"/>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="5" t="s">
+    <row r="188" hidden="1" spans="1:2">
+      <c r="A188" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" hidden="1" spans="1:2">
       <c r="A189" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B189"/>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="4" t="s">
+    <row r="190" hidden="1" spans="1:2">
+      <c r="A190" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B190"/>
@@ -4464,176 +4423,176 @@
       </c>
       <c r="B191"/>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="5" t="s">
+    <row r="192" hidden="1" spans="1:2">
+      <c r="A192" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="3" t="s">
+    <row r="193" hidden="1" spans="1:2">
+      <c r="A193" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" hidden="1" spans="1:2">
       <c r="A194" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" hidden="1" spans="1:2">
       <c r="A195" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B195"/>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="4" t="s">
+    <row r="196" hidden="1" spans="1:2">
+      <c r="A196" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" hidden="1" spans="1:2">
       <c r="A197" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B197"/>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="5" t="s">
+    <row r="198" hidden="1" spans="1:2">
+      <c r="A198" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" hidden="1" spans="1:2">
       <c r="A199" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" hidden="1" spans="1:2">
       <c r="A200" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="5" t="s">
+    <row r="201" hidden="1" spans="1:2">
+      <c r="A201" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B201"/>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="3" t="s">
+    <row r="202" hidden="1" spans="1:2">
+      <c r="A202" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" hidden="1" spans="1:2">
       <c r="A203" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" hidden="1" spans="1:2">
       <c r="A204" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" hidden="1" spans="1:2">
       <c r="A205" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B205"/>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="3" t="s">
+    <row r="206" hidden="1" spans="1:2">
+      <c r="A206" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" hidden="1" spans="1:2">
       <c r="A207" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B207"/>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="3" t="s">
+    <row r="208" hidden="1" spans="1:2">
+      <c r="A208" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" hidden="1" spans="1:2">
       <c r="A209" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B209"/>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="3" t="s">
+    <row r="210" hidden="1" spans="1:2">
+      <c r="A210" s="5" t="s">
         <v>209</v>
       </c>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="4" t="s">
+    <row r="211" hidden="1" spans="1:2">
+      <c r="A211" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B211"/>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="4" t="s">
+    <row r="212" hidden="1" spans="1:2">
+      <c r="A212" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="4" t="s">
+    <row r="213" hidden="1" spans="1:2">
+      <c r="A213" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B213"/>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="3" t="s">
+    <row r="214" hidden="1" spans="1:2">
+      <c r="A214" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="5" t="s">
+    <row r="215" hidden="1" spans="1:2">
+      <c r="A215" s="4" t="s">
         <v>214</v>
       </c>
       <c r="B215"/>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="5" t="s">
+    <row r="216" hidden="1" spans="1:2">
+      <c r="A216" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" hidden="1" spans="1:2">
       <c r="A217" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B217"/>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="4" t="s">
+    <row r="219" hidden="1" spans="1:2">
+      <c r="A219" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B219"/>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B220"/>
@@ -4644,644 +4603,644 @@
       </c>
       <c r="B221"/>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="5" t="s">
+    <row r="222" hidden="1" spans="1:2">
+      <c r="A222" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="5" t="s">
+    <row r="223" hidden="1" spans="1:2">
+      <c r="A223" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" hidden="1" spans="1:2">
       <c r="A224" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="3" t="s">
+    <row r="225" hidden="1" spans="1:2">
+      <c r="A225" s="4" t="s">
         <v>224</v>
       </c>
       <c r="B225"/>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="3" t="s">
+    <row r="226" hidden="1" spans="1:2">
+      <c r="A226" s="4" t="s">
         <v>225</v>
       </c>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="3" t="s">
+    <row r="227" hidden="1" spans="1:2">
+      <c r="A227" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" hidden="1" spans="1:2">
       <c r="A228" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="3" t="s">
+    <row r="229" hidden="1" spans="1:2">
+      <c r="A229" s="4" t="s">
         <v>228</v>
       </c>
       <c r="B229"/>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="4" t="s">
+    <row r="230" hidden="1" spans="1:2">
+      <c r="A230" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="4" t="s">
+    <row r="231" hidden="1" spans="1:2">
+      <c r="A231" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B231"/>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="4" t="s">
+    <row r="232" hidden="1" spans="1:2">
+      <c r="A232" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="3" t="s">
+    <row r="233" hidden="1" spans="1:2">
+      <c r="A233" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B233"/>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="4" t="s">
+    <row r="234" hidden="1" spans="1:2">
+      <c r="A234" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="5" t="s">
+    <row r="235" hidden="1" spans="1:2">
+      <c r="A235" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B235"/>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="5" t="s">
+    <row r="236" hidden="1" spans="1:2">
+      <c r="A236" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" hidden="1" spans="1:2">
       <c r="A237" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B237"/>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="5" t="s">
+      <c r="B237" s="6" t="s">
         <v>237</v>
       </c>
+    </row>
+    <row r="238" hidden="1" spans="1:2">
+      <c r="A238" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" hidden="1" spans="1:2">
       <c r="A239" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" hidden="1" spans="1:2">
       <c r="A240" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" hidden="1" spans="1:1">
       <c r="A241" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B241"/>
-    </row>
-    <row r="242" spans="1:2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" hidden="1" spans="1:2">
       <c r="A242" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B242" s="6" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="243" spans="1:2">
+      <c r="B242"/>
+    </row>
+    <row r="243" hidden="1" spans="1:2">
       <c r="A243" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" hidden="1" spans="1:2">
       <c r="A244" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" hidden="1" spans="1:1">
       <c r="A245" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B245"/>
-    </row>
-    <row r="246" spans="1:1">
+    </row>
+    <row r="246" hidden="1" spans="1:1">
       <c r="A246" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" hidden="1" spans="1:1">
       <c r="A247" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B247"/>
-    </row>
-    <row r="248" spans="1:2">
+    </row>
+    <row r="248" hidden="1" spans="1:1">
       <c r="A248" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B248"/>
-    </row>
-    <row r="249" spans="1:2">
+    </row>
+    <row r="249" hidden="1" spans="1:1">
       <c r="A249" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B249"/>
-    </row>
-    <row r="250" spans="1:1">
+    </row>
+    <row r="250" hidden="1" spans="1:1">
       <c r="A250" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" hidden="1" spans="1:2">
       <c r="A251" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="B251"/>
+    </row>
+    <row r="252" hidden="1" spans="1:2">
       <c r="A252" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="B252"/>
+    </row>
+    <row r="253" hidden="1" spans="1:1">
       <c r="A253" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" hidden="1" spans="1:2">
       <c r="A254" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="B254"/>
+    </row>
+    <row r="255" hidden="1" spans="1:2">
       <c r="A255" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="256" spans="1:2">
+      <c r="B255"/>
+    </row>
+    <row r="256" hidden="1" spans="1:2">
       <c r="A256" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" hidden="1" spans="1:2">
       <c r="A257" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B257"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" hidden="1" spans="1:2">
       <c r="A258" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="259" spans="1:2">
+      <c r="B258"/>
+    </row>
+    <row r="259" hidden="1" spans="1:2">
       <c r="A259" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" hidden="1" spans="1:2">
       <c r="A260" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" hidden="1" spans="1:2">
       <c r="A261" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" hidden="1" spans="1:2">
       <c r="A262" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" hidden="1" spans="1:2">
       <c r="A263" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" hidden="1" spans="1:2">
       <c r="A264" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" hidden="1" spans="1:2">
       <c r="A265" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" hidden="1" spans="1:2">
       <c r="A266" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" hidden="1" spans="1:2">
       <c r="A267" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" hidden="1" spans="1:2">
       <c r="A268" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" hidden="1" spans="1:2">
       <c r="A269" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" hidden="1" spans="1:2">
       <c r="A270" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" hidden="1" spans="1:2">
       <c r="A271" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" hidden="1" spans="1:2">
       <c r="A272" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" hidden="1" spans="1:2">
       <c r="A273" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B273"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" hidden="1" spans="1:2">
       <c r="A274" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" hidden="1" spans="1:2">
       <c r="A275" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B275"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" hidden="1" spans="1:2">
       <c r="A276" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" hidden="1" spans="1:2">
       <c r="A277" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B277"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" hidden="1" spans="1:2">
       <c r="A278" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" hidden="1" spans="1:2">
       <c r="A279" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B279"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" hidden="1" spans="1:2">
       <c r="A280" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" hidden="1" spans="1:2">
       <c r="A281" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B281"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" hidden="1" spans="1:2">
       <c r="A282" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" hidden="1" spans="1:1">
       <c r="A283" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B283"/>
-    </row>
-    <row r="284" spans="1:2">
+    </row>
+    <row r="284" hidden="1" spans="1:1">
       <c r="A284" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B284"/>
-    </row>
-    <row r="285" spans="1:2">
+    </row>
+    <row r="285" spans="1:1">
       <c r="A285" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B285"/>
-    </row>
-    <row r="286" spans="1:2">
+    </row>
+    <row r="286" hidden="1" spans="1:1">
       <c r="A286" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B286"/>
-    </row>
-    <row r="287" spans="1:2">
+    </row>
+    <row r="287" hidden="1" spans="1:2">
       <c r="A287" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B287"/>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:2">
       <c r="A288" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="B288"/>
+    </row>
+    <row r="289" hidden="1" spans="1:2">
       <c r="A289" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="B289"/>
+    </row>
+    <row r="290" hidden="1" spans="1:2">
       <c r="A290" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="B290"/>
+    </row>
+    <row r="291" hidden="1" spans="1:2">
       <c r="A291" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="292" spans="1:2">
+      <c r="B291"/>
+    </row>
+    <row r="292" hidden="1" spans="1:2">
       <c r="A292" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" hidden="1" spans="1:2">
       <c r="A293" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" hidden="1" spans="1:2">
       <c r="A294" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" hidden="1" spans="1:2">
       <c r="A295" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B295"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" hidden="1" spans="1:2">
       <c r="A296" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" hidden="1" spans="1:2">
       <c r="A297" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B297"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" hidden="1" spans="1:2">
       <c r="A298" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" hidden="1" spans="1:2">
       <c r="A299" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B299"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" hidden="1" spans="1:2">
       <c r="A300" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" hidden="1" spans="1:2">
       <c r="A301" s="3" t="s">
         <v>301</v>
       </c>
       <c r="B301"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" hidden="1" spans="1:2">
       <c r="A302" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" hidden="1" spans="1:2">
       <c r="A303" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B303"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" hidden="1" spans="1:2">
       <c r="A304" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B304"/>
     </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="3" t="s">
+    <row r="305" hidden="1" spans="1:1">
+      <c r="A305" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B305"/>
-    </row>
-    <row r="306" spans="1:2">
+    </row>
+    <row r="306" hidden="1" spans="1:2">
       <c r="A306" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B306"/>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" hidden="1" spans="1:2">
       <c r="A307" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B307"/>
     </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="3" t="s">
+    <row r="308" hidden="1" spans="1:2">
+      <c r="A308" s="5" t="s">
         <v>308</v>
       </c>
       <c r="B308"/>
     </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="3" t="s">
+    <row r="309" hidden="1" spans="1:2">
+      <c r="A309" s="5" t="s">
         <v>309</v>
       </c>
       <c r="B309"/>
     </row>
-    <row r="310" spans="1:1">
-      <c r="A310" s="4" t="s">
+    <row r="310" hidden="1" spans="1:2">
+      <c r="A310" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="311" spans="1:2">
+      <c r="B310"/>
+    </row>
+    <row r="311" hidden="1" spans="1:2">
       <c r="A311" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B311"/>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" hidden="1" spans="1:2">
       <c r="A312" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B312"/>
     </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="5" t="s">
+    <row r="313" hidden="1" spans="1:2">
+      <c r="A313" s="3" t="s">
         <v>313</v>
       </c>
       <c r="B313"/>
     </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="5" t="s">
+    <row r="314" hidden="1" spans="1:2">
+      <c r="A314" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B314"/>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" hidden="1" spans="1:2">
       <c r="A315" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B315"/>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" hidden="1" spans="1:2">
       <c r="A316" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B316"/>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" hidden="1" spans="1:2">
       <c r="A317" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B317"/>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" hidden="1" spans="1:2">
       <c r="A318" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B318"/>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" hidden="1" spans="1:2">
       <c r="A319" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B319"/>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:1">
       <c r="A320" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B320"/>
-    </row>
-    <row r="321" spans="1:2">
+    </row>
+    <row r="321" hidden="1" spans="1:2">
       <c r="A321" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B321"/>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" hidden="1" spans="1:2">
       <c r="A322" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B322"/>
     </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="3" t="s">
+    <row r="323" hidden="1" spans="1:2">
+      <c r="A323" s="4" t="s">
         <v>323</v>
       </c>
       <c r="B323"/>
     </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="3" t="s">
+    <row r="324" hidden="1" spans="1:2">
+      <c r="A324" s="4" t="s">
         <v>324</v>
       </c>
       <c r="B324"/>
     </row>
-    <row r="325" spans="1:1">
-      <c r="A325" s="3" t="s">
+    <row r="325" hidden="1" spans="1:2">
+      <c r="A325" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="3" t="s">
+      <c r="B325"/>
+    </row>
+    <row r="326" hidden="1" spans="1:2">
+      <c r="A326" s="4" t="s">
         <v>326</v>
       </c>
       <c r="B326"/>
     </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="3" t="s">
+    <row r="327" hidden="1" spans="1:2">
+      <c r="A327" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B327"/>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" hidden="1" spans="1:2">
       <c r="A328" s="4" t="s">
         <v>328</v>
       </c>
       <c r="B328"/>
     </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="4" t="s">
+    <row r="329" hidden="1" spans="1:2">
+      <c r="A329" s="5" t="s">
         <v>329</v>
       </c>
       <c r="B329"/>
     </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="5" t="s">
+    <row r="330" hidden="1" spans="1:2">
+      <c r="A330" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B330"/>
@@ -5292,188 +5251,188 @@
       </c>
       <c r="B331"/>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" hidden="1" spans="1:2">
       <c r="A332" s="4" t="s">
         <v>332</v>
       </c>
       <c r="B332"/>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" hidden="1" spans="1:2">
       <c r="A333" s="4" t="s">
         <v>333</v>
       </c>
       <c r="B333"/>
     </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="5" t="s">
+    <row r="334" hidden="1" spans="1:2">
+      <c r="A334" s="4" t="s">
         <v>334</v>
       </c>
       <c r="B334"/>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" hidden="1" spans="1:2">
       <c r="A335" s="4" t="s">
         <v>335</v>
       </c>
       <c r="B335"/>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" hidden="1" spans="1:2">
       <c r="A336" s="4" t="s">
         <v>336</v>
       </c>
       <c r="B336"/>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" hidden="1" spans="1:2">
       <c r="A337" s="4" t="s">
         <v>337</v>
       </c>
       <c r="B337"/>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" hidden="1" spans="1:2">
       <c r="A338" s="4" t="s">
         <v>338</v>
       </c>
       <c r="B338"/>
     </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="4" t="s">
+    <row r="339" hidden="1" spans="1:2">
+      <c r="A339" s="5" t="s">
         <v>339</v>
       </c>
       <c r="B339"/>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" hidden="1" spans="1:2">
       <c r="A340" s="4" t="s">
         <v>340</v>
       </c>
       <c r="B340"/>
     </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="4" t="s">
+    <row r="341" hidden="1" spans="1:2">
+      <c r="A341" s="5" t="s">
         <v>341</v>
       </c>
       <c r="B341"/>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" hidden="1" spans="1:2">
       <c r="A342" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B342"/>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" hidden="1" spans="1:2">
       <c r="A343" s="4" t="s">
         <v>343</v>
       </c>
       <c r="B343"/>
     </row>
-    <row r="344" spans="1:2">
-      <c r="A344" s="5" t="s">
+    <row r="344" hidden="1" spans="1:2">
+      <c r="A344" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B344"/>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" hidden="1" spans="1:2">
       <c r="A345" s="4" t="s">
         <v>345</v>
       </c>
       <c r="B345"/>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="5" t="s">
+      <c r="A346" s="4" t="s">
         <v>346</v>
       </c>
       <c r="B346"/>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" hidden="1" spans="1:2">
       <c r="A347" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B347"/>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" hidden="1" spans="1:2">
       <c r="A348" s="4" t="s">
         <v>348</v>
       </c>
       <c r="B348"/>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" hidden="1" spans="1:2">
       <c r="A349" s="4" t="s">
         <v>349</v>
       </c>
       <c r="B349"/>
     </row>
-    <row r="350" spans="1:2">
-      <c r="A350" s="3" t="s">
+    <row r="350" hidden="1" spans="1:2">
+      <c r="A350" s="5" t="s">
         <v>350</v>
       </c>
       <c r="B350"/>
     </row>
-    <row r="351" spans="1:2">
-      <c r="A351" s="4" t="s">
+    <row r="351" hidden="1" spans="1:2">
+      <c r="A351" s="5" t="s">
         <v>351</v>
       </c>
       <c r="B351"/>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" hidden="1" spans="1:2">
       <c r="A352" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B352"/>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" hidden="1" spans="1:2">
       <c r="A353" s="4" t="s">
         <v>353</v>
       </c>
       <c r="B353"/>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" hidden="1" spans="1:2">
       <c r="A354" s="4" t="s">
         <v>354</v>
       </c>
       <c r="B354"/>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" hidden="1" spans="1:2">
       <c r="A355" s="4" t="s">
         <v>355</v>
       </c>
       <c r="B355"/>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" hidden="1" spans="1:2">
       <c r="A356" s="5" t="s">
         <v>356</v>
       </c>
       <c r="B356"/>
     </row>
-    <row r="357" spans="1:2">
-      <c r="A357" s="5" t="s">
+    <row r="357" hidden="1" spans="1:2">
+      <c r="A357" s="4" t="s">
         <v>357</v>
       </c>
       <c r="B357"/>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" hidden="1" spans="1:2">
       <c r="A358" s="4" t="s">
         <v>358</v>
       </c>
       <c r="B358"/>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" hidden="1" spans="1:2">
       <c r="A359" s="4" t="s">
         <v>359</v>
       </c>
       <c r="B359"/>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" hidden="1" spans="1:2">
       <c r="A360" s="4" t="s">
         <v>360</v>
       </c>
       <c r="B360"/>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" hidden="1" spans="1:2">
       <c r="A361" s="4" t="s">
         <v>361</v>
       </c>
       <c r="B361"/>
     </row>
-    <row r="362" spans="1:2">
-      <c r="A362" s="5" t="s">
+    <row r="362" hidden="1" spans="1:2">
+      <c r="A362" s="4" t="s">
         <v>362</v>
       </c>
       <c r="B362"/>
@@ -5484,37 +5443,37 @@
       </c>
       <c r="B363"/>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" hidden="1" spans="1:2">
       <c r="A364" s="4" t="s">
         <v>364</v>
       </c>
       <c r="B364"/>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" hidden="1" spans="1:2">
       <c r="A365" s="4" t="s">
         <v>365</v>
       </c>
       <c r="B365"/>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" hidden="1" spans="1:2">
       <c r="A366" s="4" t="s">
         <v>366</v>
       </c>
       <c r="B366"/>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" hidden="1" spans="1:2">
       <c r="A367" s="4" t="s">
         <v>367</v>
       </c>
       <c r="B367"/>
     </row>
-    <row r="368" spans="1:2">
-      <c r="A368" s="3" t="s">
+    <row r="368" hidden="1" spans="1:2">
+      <c r="A368" s="4" t="s">
         <v>368</v>
       </c>
       <c r="B368"/>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" hidden="1" spans="1:2">
       <c r="A369" s="4" t="s">
         <v>369</v>
       </c>
@@ -5526,1434 +5485,1434 @@
       </c>
       <c r="B370"/>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" hidden="1" spans="1:2">
       <c r="A371" s="4" t="s">
         <v>371</v>
       </c>
       <c r="B371"/>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="4" t="s">
+      <c r="A372" s="5" t="s">
         <v>372</v>
       </c>
       <c r="B372"/>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" hidden="1" spans="1:2">
       <c r="A373" s="4" t="s">
         <v>373</v>
       </c>
       <c r="B373"/>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" hidden="1" spans="1:2">
       <c r="A374" s="4" t="s">
         <v>374</v>
       </c>
       <c r="B374"/>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" hidden="1" spans="1:2">
       <c r="A375" s="4" t="s">
         <v>375</v>
       </c>
       <c r="B375"/>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" hidden="1" spans="1:2">
       <c r="A376" s="4" t="s">
         <v>376</v>
       </c>
       <c r="B376"/>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" hidden="1" spans="1:2">
       <c r="A377" s="4" t="s">
         <v>377</v>
       </c>
       <c r="B377"/>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" hidden="1" spans="1:2">
       <c r="A378" s="4" t="s">
         <v>378</v>
       </c>
       <c r="B378"/>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="5" t="s">
+      <c r="A379" s="4" t="s">
         <v>379</v>
       </c>
       <c r="B379"/>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" hidden="1" spans="1:2">
       <c r="A380" s="4" t="s">
         <v>380</v>
       </c>
       <c r="B380"/>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" hidden="1" spans="1:2">
       <c r="A381" s="4" t="s">
         <v>381</v>
       </c>
       <c r="B381"/>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" hidden="1" spans="1:2">
       <c r="A382" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B382"/>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" hidden="1" spans="1:2">
       <c r="A383" s="4" t="s">
         <v>383</v>
       </c>
       <c r="B383"/>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" hidden="1" spans="1:2">
       <c r="A384" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B384"/>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" hidden="1" spans="1:2">
       <c r="A385" s="4" t="s">
         <v>385</v>
       </c>
       <c r="B385"/>
     </row>
-    <row r="386" spans="1:2">
-      <c r="A386" s="4" t="s">
+    <row r="386" hidden="1" spans="1:2">
+      <c r="A386" s="5" t="s">
         <v>386</v>
       </c>
       <c r="B386"/>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" hidden="1" spans="1:2">
       <c r="A387" s="4" t="s">
         <v>387</v>
       </c>
       <c r="B387"/>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" hidden="1" spans="1:2">
       <c r="A388" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B388"/>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" hidden="1" spans="1:2">
       <c r="A389" s="4" t="s">
         <v>389</v>
       </c>
       <c r="B389"/>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" hidden="1" spans="1:2">
       <c r="A390" s="4" t="s">
         <v>390</v>
       </c>
       <c r="B390"/>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" hidden="1" spans="1:2">
       <c r="A391" s="4" t="s">
         <v>391</v>
       </c>
       <c r="B391"/>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" hidden="1" spans="1:2">
       <c r="A392" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B392"/>
     </row>
-    <row r="393" spans="1:2">
-      <c r="A393" s="5" t="s">
+    <row r="393" hidden="1" spans="1:2">
+      <c r="A393" s="4" t="s">
         <v>393</v>
       </c>
       <c r="B393"/>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" hidden="1" spans="1:2">
       <c r="A394" s="4" t="s">
         <v>394</v>
       </c>
       <c r="B394"/>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" hidden="1" spans="1:2">
       <c r="A395" s="4" t="s">
         <v>395</v>
       </c>
       <c r="B395"/>
     </row>
-    <row r="396" spans="1:2">
-      <c r="A396" s="4" t="s">
+    <row r="396" hidden="1" spans="1:2">
+      <c r="A396" s="5" t="s">
         <v>396</v>
       </c>
       <c r="B396"/>
     </row>
-    <row r="397" spans="1:2">
-      <c r="A397" s="4" t="s">
+    <row r="397" hidden="1" spans="1:2">
+      <c r="A397" s="5" t="s">
         <v>397</v>
       </c>
       <c r="B397"/>
     </row>
-    <row r="398" spans="1:2">
-      <c r="A398" s="4" t="s">
+    <row r="398" hidden="1" spans="1:2">
+      <c r="A398" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B398"/>
     </row>
-    <row r="399" spans="1:2">
-      <c r="A399" s="4" t="s">
+    <row r="399" hidden="1" spans="1:2">
+      <c r="A399" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B399"/>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" hidden="1" spans="1:2">
       <c r="A400" s="4" t="s">
         <v>400</v>
       </c>
       <c r="B400"/>
     </row>
-    <row r="401" spans="1:2">
-      <c r="A401" s="4" t="s">
+    <row r="401" hidden="1" spans="1:2">
+      <c r="A401" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B401"/>
     </row>
-    <row r="402" spans="1:2">
-      <c r="A402" s="4" t="s">
+    <row r="402" hidden="1" spans="1:2">
+      <c r="A402" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B402"/>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" hidden="1" spans="1:2">
       <c r="A403" s="5" t="s">
         <v>403</v>
       </c>
       <c r="B403"/>
     </row>
-    <row r="404" spans="1:2">
-      <c r="A404" s="5" t="s">
+    <row r="404" hidden="1" spans="1:2">
+      <c r="A404" s="3" t="s">
         <v>404</v>
       </c>
       <c r="B404"/>
     </row>
-    <row r="405" spans="1:2">
-      <c r="A405" s="5" t="s">
+    <row r="405" hidden="1" spans="1:2">
+      <c r="A405" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B405"/>
     </row>
-    <row r="406" spans="1:2">
-      <c r="A406" s="5" t="s">
+    <row r="406" hidden="1" spans="1:2">
+      <c r="A406" s="3" t="s">
         <v>406</v>
       </c>
       <c r="B406"/>
     </row>
-    <row r="407" spans="1:2">
-      <c r="A407" s="4" t="s">
+    <row r="407" hidden="1" spans="1:2">
+      <c r="A407" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B407"/>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" hidden="1" spans="1:2">
       <c r="A408" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B408"/>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" hidden="1" spans="1:2">
       <c r="A409" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B409"/>
     </row>
-    <row r="410" spans="1:2">
-      <c r="A410" s="5" t="s">
+    <row r="410" hidden="1" spans="1:2">
+      <c r="A410" s="3" t="s">
         <v>410</v>
       </c>
       <c r="B410"/>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" hidden="1" spans="1:2">
       <c r="A411" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B411"/>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" hidden="1" spans="1:2">
       <c r="A412" s="3" t="s">
         <v>412</v>
       </c>
       <c r="B412"/>
     </row>
-    <row r="413" spans="1:2">
-      <c r="A413" s="3" t="s">
+    <row r="413" hidden="1" spans="1:2">
+      <c r="A413" s="4" t="s">
         <v>413</v>
       </c>
       <c r="B413"/>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" hidden="1" spans="1:2">
       <c r="A414" s="3" t="s">
         <v>414</v>
       </c>
       <c r="B414"/>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" hidden="1" spans="1:2">
       <c r="A415" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B415"/>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" hidden="1" spans="1:2">
       <c r="A416" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B416"/>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" hidden="1" spans="1:2">
       <c r="A417" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B417"/>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" hidden="1" spans="1:2">
       <c r="A418" s="3" t="s">
         <v>418</v>
       </c>
       <c r="B418"/>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" hidden="1" spans="1:2">
       <c r="A419" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B419"/>
     </row>
     <row r="420" spans="1:2">
-      <c r="A420" s="4" t="s">
+      <c r="A420" s="3" t="s">
         <v>420</v>
       </c>
       <c r="B420"/>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" hidden="1" spans="1:2">
       <c r="A421" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B421"/>
     </row>
-    <row r="422" spans="1:2">
-      <c r="A422" s="3" t="s">
+    <row r="422" hidden="1" spans="1:2">
+      <c r="A422" s="5" t="s">
         <v>422</v>
       </c>
       <c r="B422"/>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" hidden="1" spans="1:2">
       <c r="A423" s="3" t="s">
         <v>423</v>
       </c>
       <c r="B423"/>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" hidden="1" spans="1:2">
       <c r="A424" s="3" t="s">
         <v>424</v>
       </c>
       <c r="B424"/>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" hidden="1" spans="1:2">
       <c r="A425" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B425"/>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" hidden="1" spans="1:2">
       <c r="A426" s="3" t="s">
         <v>426</v>
       </c>
       <c r="B426"/>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" hidden="1" spans="1:2">
       <c r="A427" s="3" t="s">
         <v>427</v>
       </c>
       <c r="B427"/>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" hidden="1" spans="1:2">
       <c r="A428" s="3" t="s">
         <v>428</v>
       </c>
       <c r="B428"/>
     </row>
-    <row r="429" spans="1:2">
-      <c r="A429" s="5" t="s">
+    <row r="429" hidden="1" spans="1:2">
+      <c r="A429" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B429"/>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" hidden="1" spans="1:2">
       <c r="A430" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B430"/>
     </row>
-    <row r="431" spans="1:2">
-      <c r="A431" s="3" t="s">
+    <row r="431" hidden="1" spans="1:2">
+      <c r="A431" s="4" t="s">
         <v>431</v>
       </c>
       <c r="B431"/>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" hidden="1" spans="1:2">
       <c r="A432" s="3" t="s">
         <v>432</v>
       </c>
       <c r="B432"/>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" hidden="1" spans="1:2">
       <c r="A433" s="3" t="s">
         <v>433</v>
       </c>
       <c r="B433"/>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" hidden="1" spans="1:2">
       <c r="A434" s="3" t="s">
         <v>434</v>
       </c>
       <c r="B434"/>
     </row>
-    <row r="435" spans="1:2">
-      <c r="A435" s="3" t="s">
+    <row r="435" hidden="1" spans="1:2">
+      <c r="A435" s="4" t="s">
         <v>435</v>
       </c>
       <c r="B435"/>
     </row>
-    <row r="436" spans="1:2">
-      <c r="A436" s="3" t="s">
+    <row r="436" hidden="1" spans="1:2">
+      <c r="A436" s="4" t="s">
         <v>436</v>
       </c>
       <c r="B436"/>
     </row>
-    <row r="437" spans="1:2">
-      <c r="A437" s="3" t="s">
+    <row r="437" hidden="1" spans="1:2">
+      <c r="A437" s="5" t="s">
         <v>437</v>
       </c>
       <c r="B437"/>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" hidden="1" spans="1:2">
       <c r="A438" s="4" t="s">
         <v>438</v>
       </c>
       <c r="B438"/>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" hidden="1" spans="1:2">
       <c r="A439" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B439"/>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" hidden="1" spans="1:2">
       <c r="A440" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B440"/>
     </row>
-    <row r="441" spans="1:2">
-      <c r="A441" s="3" t="s">
+    <row r="441" hidden="1" spans="1:2">
+      <c r="A441" s="5" t="s">
         <v>441</v>
       </c>
       <c r="B441"/>
     </row>
-    <row r="442" spans="1:2">
-      <c r="A442" s="4" t="s">
+    <row r="442" hidden="1" spans="1:2">
+      <c r="A442" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B442"/>
     </row>
-    <row r="443" spans="1:2">
-      <c r="A443" s="4" t="s">
+    <row r="443" hidden="1" spans="1:2">
+      <c r="A443" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B443"/>
     </row>
-    <row r="444" spans="1:2">
-      <c r="A444" s="5" t="s">
+    <row r="444" hidden="1" spans="1:2">
+      <c r="A444" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B444"/>
     </row>
-    <row r="445" spans="1:2">
-      <c r="A445" s="4" t="s">
+    <row r="445" hidden="1" spans="1:2">
+      <c r="A445" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B445"/>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" hidden="1" spans="1:2">
       <c r="A446" s="3" t="s">
         <v>446</v>
       </c>
       <c r="B446"/>
     </row>
-    <row r="447" spans="1:2">
-      <c r="A447" s="3" t="s">
+    <row r="447" hidden="1" spans="1:2">
+      <c r="A447" s="4" t="s">
         <v>447</v>
       </c>
       <c r="B447"/>
     </row>
-    <row r="448" spans="1:2">
-      <c r="A448" s="5" t="s">
+    <row r="448" hidden="1" spans="1:2">
+      <c r="A448" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B448"/>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" hidden="1" spans="1:2">
       <c r="A449" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B449"/>
     </row>
-    <row r="450" spans="1:2">
-      <c r="A450" s="5" t="s">
+    <row r="450" hidden="1" spans="1:2">
+      <c r="A450" s="3" t="s">
         <v>450</v>
       </c>
       <c r="B450"/>
     </row>
-    <row r="451" spans="1:2">
-      <c r="A451" s="3" t="s">
+    <row r="451" hidden="1" spans="1:2">
+      <c r="A451" s="4" t="s">
         <v>451</v>
       </c>
       <c r="B451"/>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" hidden="1" spans="1:2">
       <c r="A452" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B452"/>
     </row>
-    <row r="453" spans="1:2">
-      <c r="A453" s="3" t="s">
+    <row r="453" hidden="1" spans="1:2">
+      <c r="A453" s="4" t="s">
         <v>453</v>
       </c>
       <c r="B453"/>
     </row>
-    <row r="454" spans="1:2">
-      <c r="A454" s="4" t="s">
+    <row r="454" hidden="1" spans="1:2">
+      <c r="A454" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B454"/>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" hidden="1" spans="1:2">
       <c r="A455" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B455"/>
     </row>
-    <row r="456" spans="1:2">
-      <c r="A456" s="3" t="s">
+    <row r="456" hidden="1" spans="1:1">
+      <c r="A456" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B456"/>
-    </row>
-    <row r="457" spans="1:2">
+    </row>
+    <row r="457" hidden="1" spans="1:2">
       <c r="A457" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B457"/>
     </row>
-    <row r="458" spans="1:2">
-      <c r="A458" s="4" t="s">
+    <row r="458" hidden="1" spans="1:2">
+      <c r="A458" s="5" t="s">
         <v>458</v>
       </c>
       <c r="B458"/>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" hidden="1" spans="1:2">
       <c r="A459" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B459"/>
     </row>
-    <row r="460" spans="1:2">
-      <c r="A460" s="4" t="s">
+    <row r="460" hidden="1" spans="1:2">
+      <c r="A460" s="3" t="s">
         <v>460</v>
       </c>
       <c r="B460"/>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" hidden="1" spans="1:2">
       <c r="A461" s="3" t="s">
         <v>461</v>
       </c>
       <c r="B461"/>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" hidden="1" spans="1:2">
       <c r="A462" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B462"/>
     </row>
-    <row r="463" spans="1:1">
-      <c r="A463" s="5" t="s">
+    <row r="463" hidden="1" spans="1:2">
+      <c r="A463" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="464" spans="1:2">
+      <c r="B463"/>
+    </row>
+    <row r="464" hidden="1" spans="1:2">
       <c r="A464" s="3" t="s">
         <v>464</v>
       </c>
       <c r="B464"/>
     </row>
-    <row r="465" spans="1:2">
-      <c r="A465" s="5" t="s">
+    <row r="465" hidden="1" spans="1:2">
+      <c r="A465" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B465"/>
     </row>
-    <row r="466" spans="1:2">
-      <c r="A466" s="3" t="s">
+    <row r="466" hidden="1" spans="1:2">
+      <c r="A466" s="4" t="s">
         <v>466</v>
       </c>
       <c r="B466"/>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" hidden="1" spans="1:2">
       <c r="A467" s="3" t="s">
         <v>467</v>
       </c>
       <c r="B467"/>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" hidden="1" spans="1:2">
       <c r="A468" s="3" t="s">
         <v>468</v>
       </c>
       <c r="B468"/>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" hidden="1" spans="1:2">
       <c r="A469" s="3" t="s">
         <v>469</v>
       </c>
       <c r="B469"/>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" hidden="1" spans="1:2">
       <c r="A470" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B470"/>
     </row>
-    <row r="471" spans="1:2">
-      <c r="A471" s="3" t="s">
+    <row r="471" hidden="1" spans="1:2">
+      <c r="A471" s="5" t="s">
         <v>471</v>
       </c>
       <c r="B471"/>
     </row>
-    <row r="472" spans="1:2">
-      <c r="A472" s="3" t="s">
+    <row r="472" hidden="1" spans="1:2">
+      <c r="A472" s="5" t="s">
         <v>472</v>
       </c>
       <c r="B472"/>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" hidden="1" spans="1:2">
       <c r="A473" s="4" t="s">
         <v>473</v>
       </c>
       <c r="B473"/>
     </row>
-    <row r="474" spans="1:2">
-      <c r="A474" s="3" t="s">
+    <row r="474" hidden="1" spans="1:2">
+      <c r="A474" s="4" t="s">
         <v>474</v>
       </c>
       <c r="B474"/>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" hidden="1" spans="1:2">
       <c r="A475" s="3" t="s">
         <v>475</v>
       </c>
       <c r="B475"/>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" hidden="1" spans="1:2">
       <c r="A476" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B476"/>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" hidden="1" spans="1:2">
       <c r="A477" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B477"/>
     </row>
-    <row r="478" spans="1:2">
-      <c r="A478" s="5" t="s">
+    <row r="478" hidden="1" spans="1:2">
+      <c r="A478" s="4" t="s">
         <v>478</v>
       </c>
       <c r="B478"/>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" hidden="1" spans="1:2">
       <c r="A479" s="5" t="s">
         <v>479</v>
       </c>
       <c r="B479"/>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" hidden="1" spans="1:2">
       <c r="A480" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B480"/>
     </row>
-    <row r="481" spans="1:2">
-      <c r="A481" s="4" t="s">
+    <row r="481" hidden="1" spans="1:2">
+      <c r="A481" s="3" t="s">
         <v>481</v>
       </c>
       <c r="B481"/>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" hidden="1" spans="1:2">
       <c r="A482" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B482"/>
     </row>
-    <row r="483" spans="1:2">
-      <c r="A483" s="3" t="s">
+    <row r="483" hidden="1" spans="1:2">
+      <c r="A483" s="5" t="s">
         <v>483</v>
       </c>
       <c r="B483"/>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" hidden="1" spans="1:2">
       <c r="A484" s="3" t="s">
         <v>484</v>
       </c>
       <c r="B484"/>
     </row>
-    <row r="485" spans="1:2">
-      <c r="A485" s="4" t="s">
+    <row r="485" hidden="1" spans="1:2">
+      <c r="A485" s="3" t="s">
         <v>485</v>
       </c>
       <c r="B485"/>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" hidden="1" spans="1:2">
       <c r="A486" s="5" t="s">
         <v>486</v>
       </c>
       <c r="B486"/>
     </row>
-    <row r="487" spans="1:2">
-      <c r="A487" s="4" t="s">
+    <row r="487" hidden="1" spans="1:2">
+      <c r="A487" s="3" t="s">
         <v>487</v>
       </c>
       <c r="B487"/>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" hidden="1" spans="1:2">
       <c r="A488" s="3" t="s">
         <v>488</v>
       </c>
       <c r="B488"/>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" hidden="1" spans="1:2">
       <c r="A489" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B489"/>
     </row>
-    <row r="490" spans="1:2">
-      <c r="A490" s="5" t="s">
+    <row r="490" hidden="1" spans="1:2">
+      <c r="A490" s="3" t="s">
         <v>490</v>
       </c>
       <c r="B490"/>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" hidden="1" spans="1:2">
       <c r="A491" s="3" t="s">
         <v>491</v>
       </c>
       <c r="B491"/>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" hidden="1" spans="1:2">
       <c r="A492" s="3" t="s">
         <v>492</v>
       </c>
       <c r="B492"/>
     </row>
-    <row r="493" spans="1:2">
-      <c r="A493" s="5" t="s">
+    <row r="493" hidden="1" spans="1:2">
+      <c r="A493" s="3" t="s">
         <v>493</v>
       </c>
       <c r="B493"/>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" hidden="1" spans="1:2">
       <c r="A494" s="3" t="s">
         <v>494</v>
       </c>
       <c r="B494"/>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" hidden="1" spans="1:2">
       <c r="A495" s="3" t="s">
         <v>495</v>
       </c>
       <c r="B495"/>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" hidden="1" spans="1:2">
       <c r="A496" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B496"/>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" hidden="1" spans="1:2">
       <c r="A497" s="3" t="s">
         <v>497</v>
       </c>
       <c r="B497"/>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" hidden="1" spans="1:2">
       <c r="A498" s="3" t="s">
         <v>498</v>
       </c>
       <c r="B498"/>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" hidden="1" spans="1:2">
       <c r="A499" s="3" t="s">
         <v>499</v>
       </c>
       <c r="B499"/>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" hidden="1" spans="1:2">
       <c r="A500" s="3" t="s">
         <v>500</v>
       </c>
       <c r="B500"/>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" hidden="1" spans="1:2">
       <c r="A501" s="3" t="s">
         <v>501</v>
       </c>
       <c r="B501"/>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" hidden="1" spans="1:2">
       <c r="A502" s="3" t="s">
         <v>502</v>
       </c>
       <c r="B502"/>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" hidden="1" spans="1:2">
       <c r="A503" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B503"/>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" hidden="1" spans="1:2">
       <c r="A504" s="3" t="s">
         <v>504</v>
       </c>
       <c r="B504"/>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" hidden="1" spans="1:2">
       <c r="A505" s="3" t="s">
         <v>505</v>
       </c>
       <c r="B505"/>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" hidden="1" spans="1:2">
       <c r="A506" s="3" t="s">
         <v>506</v>
       </c>
       <c r="B506"/>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" hidden="1" spans="1:2">
       <c r="A507" s="3" t="s">
         <v>507</v>
       </c>
       <c r="B507"/>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" hidden="1" spans="1:2">
       <c r="A508" s="3" t="s">
         <v>508</v>
       </c>
       <c r="B508"/>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" hidden="1" spans="1:2">
       <c r="A509" s="3" t="s">
         <v>509</v>
       </c>
       <c r="B509"/>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" hidden="1" spans="1:2">
       <c r="A510" s="3" t="s">
         <v>510</v>
       </c>
       <c r="B510"/>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" hidden="1" spans="1:2">
       <c r="A511" s="3" t="s">
         <v>511</v>
       </c>
       <c r="B511"/>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" hidden="1" spans="1:2">
       <c r="A512" s="3" t="s">
         <v>512</v>
       </c>
       <c r="B512"/>
     </row>
-    <row r="513" spans="1:2">
-      <c r="A513" s="3" t="s">
+    <row r="513" hidden="1" spans="1:2">
+      <c r="A513" s="4" t="s">
         <v>513</v>
       </c>
       <c r="B513"/>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" hidden="1" spans="1:2">
       <c r="A514" s="3" t="s">
         <v>514</v>
       </c>
       <c r="B514"/>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" hidden="1" spans="1:2">
       <c r="A515" s="3" t="s">
         <v>515</v>
       </c>
       <c r="B515"/>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" hidden="1" spans="1:2">
       <c r="A516" s="3" t="s">
         <v>516</v>
       </c>
       <c r="B516"/>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" hidden="1" spans="1:2">
       <c r="A517" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B517"/>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" hidden="1" spans="1:2">
       <c r="A518" s="3" t="s">
         <v>518</v>
       </c>
       <c r="B518"/>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" hidden="1" spans="1:2">
       <c r="A519" s="3" t="s">
         <v>519</v>
       </c>
       <c r="B519"/>
     </row>
-    <row r="520" spans="1:2">
-      <c r="A520" s="3" t="s">
+    <row r="520" hidden="1" spans="1:2">
+      <c r="A520" s="5" t="s">
         <v>520</v>
       </c>
       <c r="B520"/>
     </row>
-    <row r="521" spans="1:2">
-      <c r="A521" s="4" t="s">
+    <row r="521" hidden="1" spans="1:2">
+      <c r="A521" s="3" t="s">
         <v>521</v>
       </c>
       <c r="B521"/>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" hidden="1" spans="1:2">
       <c r="A522" s="3" t="s">
         <v>522</v>
       </c>
       <c r="B522"/>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" hidden="1" spans="1:2">
       <c r="A523" s="3" t="s">
         <v>523</v>
       </c>
       <c r="B523"/>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" hidden="1" spans="1:2">
       <c r="A524" s="3" t="s">
         <v>524</v>
       </c>
       <c r="B524"/>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" hidden="1" spans="1:2">
       <c r="A525" s="3" t="s">
         <v>525</v>
       </c>
       <c r="B525"/>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" hidden="1" spans="1:2">
       <c r="A526" s="3" t="s">
         <v>526</v>
       </c>
       <c r="B526"/>
     </row>
-    <row r="527" spans="1:2">
+    <row r="527" hidden="1" spans="1:2">
       <c r="A527" s="3" t="s">
         <v>527</v>
       </c>
       <c r="B527"/>
     </row>
-    <row r="528" spans="1:2">
-      <c r="A528" s="5" t="s">
+    <row r="528" hidden="1" spans="1:2">
+      <c r="A528" s="4" t="s">
         <v>528</v>
       </c>
       <c r="B528"/>
     </row>
-    <row r="529" spans="1:2">
-      <c r="A529" s="3" t="s">
+    <row r="529" hidden="1" spans="1:2">
+      <c r="A529" s="4" t="s">
         <v>529</v>
       </c>
       <c r="B529"/>
     </row>
-    <row r="530" spans="1:2">
-      <c r="A530" s="3" t="s">
+    <row r="530" hidden="1" spans="1:2">
+      <c r="A530" s="4" t="s">
         <v>530</v>
       </c>
       <c r="B530"/>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" hidden="1" spans="1:2">
       <c r="A531" s="3" t="s">
         <v>531</v>
       </c>
       <c r="B531"/>
     </row>
-    <row r="532" spans="1:2">
-      <c r="A532" s="3" t="s">
+    <row r="532" hidden="1" spans="1:2">
+      <c r="A532" s="4" t="s">
         <v>532</v>
       </c>
       <c r="B532"/>
     </row>
-    <row r="533" spans="1:2">
+    <row r="533" hidden="1" spans="1:2">
       <c r="A533" s="3" t="s">
         <v>533</v>
       </c>
       <c r="B533"/>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" hidden="1" spans="1:2">
       <c r="A534" s="3" t="s">
         <v>534</v>
       </c>
       <c r="B534"/>
     </row>
-    <row r="535" spans="1:2">
+    <row r="535" hidden="1" spans="1:2">
       <c r="A535" s="3" t="s">
         <v>535</v>
       </c>
       <c r="B535"/>
     </row>
-    <row r="536" spans="1:2">
-      <c r="A536" s="4" t="s">
+    <row r="536" hidden="1" spans="1:2">
+      <c r="A536" s="5" t="s">
         <v>536</v>
       </c>
       <c r="B536"/>
     </row>
-    <row r="537" spans="1:2">
-      <c r="A537" s="4" t="s">
+    <row r="537" hidden="1" spans="1:2">
+      <c r="A537" s="5" t="s">
         <v>537</v>
       </c>
       <c r="B537"/>
     </row>
-    <row r="538" spans="1:2">
-      <c r="A538" s="4" t="s">
+    <row r="538" hidden="1" spans="1:2">
+      <c r="A538" s="5" t="s">
         <v>538</v>
       </c>
       <c r="B538"/>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" hidden="1" spans="1:2">
       <c r="A539" s="3" t="s">
         <v>539</v>
       </c>
       <c r="B539"/>
     </row>
-    <row r="540" spans="1:2">
-      <c r="A540" s="4" t="s">
+    <row r="540" hidden="1" spans="1:2">
+      <c r="A540" s="3" t="s">
         <v>540</v>
       </c>
       <c r="B540"/>
     </row>
-    <row r="541" spans="1:2">
+    <row r="541" hidden="1" spans="1:2">
       <c r="A541" s="3" t="s">
         <v>541</v>
       </c>
       <c r="B541"/>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" hidden="1" spans="1:2">
       <c r="A542" s="3" t="s">
         <v>542</v>
       </c>
       <c r="B542"/>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" hidden="1" spans="1:2">
       <c r="A543" s="3" t="s">
         <v>543</v>
       </c>
       <c r="B543"/>
     </row>
-    <row r="544" spans="1:2">
-      <c r="A544" s="5" t="s">
+    <row r="544" hidden="1" spans="1:2">
+      <c r="A544" s="3" t="s">
         <v>544</v>
       </c>
       <c r="B544"/>
     </row>
-    <row r="545" spans="1:2">
-      <c r="A545" s="5" t="s">
+    <row r="545" hidden="1" spans="1:2">
+      <c r="A545" s="3" t="s">
         <v>545</v>
       </c>
       <c r="B545"/>
     </row>
-    <row r="546" spans="1:2">
-      <c r="A546" s="5" t="s">
+    <row r="546" hidden="1" spans="1:2">
+      <c r="A546" s="4" t="s">
         <v>546</v>
       </c>
       <c r="B546"/>
     </row>
-    <row r="547" spans="1:2">
+    <row r="547" hidden="1" spans="1:2">
       <c r="A547" s="3" t="s">
         <v>547</v>
       </c>
       <c r="B547"/>
     </row>
-    <row r="548" spans="1:2">
+    <row r="548" hidden="1" spans="1:2">
       <c r="A548" s="3" t="s">
         <v>548</v>
       </c>
       <c r="B548"/>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" hidden="1" spans="1:2">
       <c r="A549" s="3" t="s">
         <v>549</v>
       </c>
       <c r="B549"/>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" hidden="1" spans="1:2">
       <c r="A550" s="3" t="s">
         <v>550</v>
       </c>
       <c r="B550"/>
     </row>
-    <row r="551" spans="1:2">
+    <row r="551" hidden="1" spans="1:2">
       <c r="A551" s="3" t="s">
         <v>551</v>
       </c>
       <c r="B551"/>
     </row>
-    <row r="552" spans="1:2">
-      <c r="A552" s="3" t="s">
+    <row r="552" hidden="1" spans="1:2">
+      <c r="A552" s="5" t="s">
         <v>552</v>
       </c>
       <c r="B552"/>
     </row>
-    <row r="553" spans="1:2">
-      <c r="A553" s="3" t="s">
+    <row r="553" hidden="1" spans="1:2">
+      <c r="A553" s="4" t="s">
         <v>553</v>
       </c>
       <c r="B553"/>
     </row>
-    <row r="554" spans="1:2">
-      <c r="A554" s="4" t="s">
+    <row r="554" hidden="1" spans="1:2">
+      <c r="A554" s="3" t="s">
         <v>554</v>
       </c>
       <c r="B554"/>
     </row>
-    <row r="555" spans="1:2">
-      <c r="A555" s="3" t="s">
+    <row r="555" hidden="1" spans="1:2">
+      <c r="A555" s="5" t="s">
         <v>555</v>
       </c>
       <c r="B555"/>
     </row>
-    <row r="556" spans="1:2">
-      <c r="A556" s="3" t="s">
+    <row r="556" hidden="1" spans="1:2">
+      <c r="A556" s="4" t="s">
         <v>556</v>
       </c>
       <c r="B556"/>
     </row>
-    <row r="557" spans="1:2">
-      <c r="A557" s="3" t="s">
+    <row r="557" hidden="1" spans="1:2">
+      <c r="A557" s="4" t="s">
         <v>557</v>
       </c>
       <c r="B557"/>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" hidden="1" spans="1:2">
       <c r="A558" s="3" t="s">
         <v>558</v>
       </c>
       <c r="B558"/>
     </row>
-    <row r="559" spans="1:2">
-      <c r="A559" s="3" t="s">
+    <row r="559" hidden="1" spans="1:2">
+      <c r="A559" s="5" t="s">
         <v>559</v>
       </c>
       <c r="B559"/>
     </row>
-    <row r="560" spans="1:2">
+    <row r="560" hidden="1" spans="1:2">
       <c r="A560" s="5" t="s">
         <v>560</v>
       </c>
       <c r="B560"/>
     </row>
-    <row r="561" spans="1:2">
+    <row r="561" hidden="1" spans="1:2">
       <c r="A561" s="4" t="s">
         <v>561</v>
       </c>
       <c r="B561"/>
     </row>
-    <row r="562" spans="1:2">
+    <row r="562" hidden="1" spans="1:2">
       <c r="A562" s="3" t="s">
         <v>562</v>
       </c>
       <c r="B562"/>
     </row>
-    <row r="563" spans="1:2">
-      <c r="A563" s="5" t="s">
+    <row r="563" hidden="1" spans="1:2">
+      <c r="A563" s="3" t="s">
         <v>563</v>
       </c>
       <c r="B563"/>
     </row>
-    <row r="564" spans="1:2">
-      <c r="A564" s="4" t="s">
+    <row r="564" hidden="1" spans="1:2">
+      <c r="A564" s="3" t="s">
         <v>564</v>
       </c>
       <c r="B564"/>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" hidden="1" spans="1:2">
       <c r="A565" s="4" t="s">
         <v>565</v>
       </c>
       <c r="B565"/>
     </row>
-    <row r="566" spans="1:2">
-      <c r="A566" s="3" t="s">
+    <row r="566" hidden="1" spans="1:2">
+      <c r="A566" s="4" t="s">
         <v>566</v>
       </c>
       <c r="B566"/>
     </row>
-    <row r="567" spans="1:2">
+    <row r="567" hidden="1" spans="1:2">
       <c r="A567" s="3" t="s">
         <v>567</v>
       </c>
       <c r="B567"/>
     </row>
-    <row r="568" spans="1:2">
-      <c r="A568" s="5" t="s">
+    <row r="568" hidden="1" spans="1:2">
+      <c r="A568" s="3" t="s">
         <v>568</v>
       </c>
       <c r="B568"/>
     </row>
-    <row r="569" spans="1:2">
-      <c r="A569" s="3" t="s">
+    <row r="569" hidden="1" spans="1:2">
+      <c r="A569" s="5" t="s">
         <v>569</v>
       </c>
       <c r="B569"/>
     </row>
-    <row r="570" spans="1:2">
+    <row r="570" hidden="1" spans="1:2">
       <c r="A570" s="5" t="s">
         <v>570</v>
       </c>
       <c r="B570"/>
     </row>
-    <row r="571" spans="1:2">
+    <row r="571" hidden="1" spans="1:2">
       <c r="A571" s="5" t="s">
         <v>571</v>
       </c>
       <c r="B571"/>
     </row>
-    <row r="572" spans="1:2">
-      <c r="A572" s="4" t="s">
+    <row r="572" hidden="1" spans="1:2">
+      <c r="A572" s="3" t="s">
         <v>572</v>
       </c>
       <c r="B572"/>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="3" t="s">
+      <c r="A573" s="4" t="s">
         <v>573</v>
       </c>
       <c r="B573"/>
     </row>
-    <row r="574" spans="1:2">
-      <c r="A574" s="3" t="s">
+    <row r="574" hidden="1" spans="1:2">
+      <c r="A574" s="5" t="s">
         <v>574</v>
       </c>
       <c r="B574"/>
     </row>
-    <row r="575" spans="1:2">
+    <row r="575" hidden="1" spans="1:2">
       <c r="A575" s="3" t="s">
         <v>575</v>
       </c>
       <c r="B575"/>
     </row>
-    <row r="576" spans="1:2">
-      <c r="A576" s="4" t="s">
+    <row r="576" hidden="1" spans="1:2">
+      <c r="A576" s="3" t="s">
         <v>576</v>
       </c>
       <c r="B576"/>
     </row>
-    <row r="577" spans="1:2">
-      <c r="A577" s="4" t="s">
+    <row r="577" hidden="1" spans="1:2">
+      <c r="A577" s="3" t="s">
         <v>577</v>
       </c>
       <c r="B577"/>
     </row>
-    <row r="578" spans="1:2">
-      <c r="A578" s="3" t="s">
+    <row r="578" hidden="1" spans="1:2">
+      <c r="A578" s="4" t="s">
         <v>578</v>
       </c>
       <c r="B578"/>
     </row>
-    <row r="579" spans="1:2">
+    <row r="579" hidden="1" spans="1:2">
       <c r="A579" s="3" t="s">
         <v>579</v>
       </c>
       <c r="B579"/>
     </row>
-    <row r="580" spans="1:2">
-      <c r="A580" s="5" t="s">
+    <row r="580" hidden="1" spans="1:2">
+      <c r="A580" s="4" t="s">
         <v>580</v>
       </c>
       <c r="B580"/>
     </row>
-    <row r="581" spans="1:2">
-      <c r="A581" s="5" t="s">
+    <row r="581" hidden="1" spans="1:2">
+      <c r="A581" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B581"/>
     </row>
-    <row r="582" spans="1:2">
-      <c r="A582" s="5" t="s">
+    <row r="582" hidden="1" spans="1:2">
+      <c r="A582" s="4" t="s">
         <v>582</v>
       </c>
       <c r="B582"/>
     </row>
-    <row r="583" spans="1:2">
+    <row r="583" hidden="1" spans="1:2">
       <c r="A583" s="3" t="s">
         <v>583</v>
       </c>
       <c r="B583"/>
     </row>
-    <row r="584" spans="1:2">
-      <c r="A584" s="4" t="s">
+    <row r="584" hidden="1" spans="1:2">
+      <c r="A584" s="5" t="s">
         <v>584</v>
       </c>
       <c r="B584"/>
     </row>
-    <row r="585" spans="1:2">
-      <c r="A585" s="5" t="s">
+    <row r="585" hidden="1" spans="1:2">
+      <c r="A585" s="4" t="s">
         <v>585</v>
       </c>
       <c r="B585"/>
     </row>
-    <row r="586" spans="1:2">
+    <row r="586" hidden="1" spans="1:2">
       <c r="A586" s="3" t="s">
         <v>586</v>
       </c>
       <c r="B586"/>
     </row>
-    <row r="587" spans="1:2">
-      <c r="A587" s="3" t="s">
+    <row r="587" hidden="1" spans="1:2">
+      <c r="A587" s="5" t="s">
         <v>587</v>
       </c>
       <c r="B587"/>
     </row>
-    <row r="588" spans="1:2">
+    <row r="588" hidden="1" spans="1:2">
       <c r="A588" s="3" t="s">
         <v>588</v>
       </c>
       <c r="B588"/>
     </row>
-    <row r="589" spans="1:2">
-      <c r="A589" s="4" t="s">
+    <row r="589" hidden="1" spans="1:2">
+      <c r="A589" s="3" t="s">
         <v>589</v>
       </c>
       <c r="B589"/>
     </row>
-    <row r="590" spans="1:2">
+    <row r="590" hidden="1" spans="1:2">
       <c r="A590" s="3" t="s">
         <v>590</v>
       </c>
       <c r="B590"/>
     </row>
-    <row r="591" spans="1:2">
-      <c r="A591" s="4" t="s">
+    <row r="591" hidden="1" spans="1:2">
+      <c r="A591" s="3" t="s">
         <v>591</v>
       </c>
       <c r="B591"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="4" t="s">
+      <c r="A592" s="3" t="s">
         <v>592</v>
       </c>
       <c r="B592"/>
     </row>
-    <row r="593" spans="1:2">
-      <c r="A593" s="3" t="s">
+    <row r="593" hidden="1" spans="1:2">
+      <c r="A593" s="4" t="s">
         <v>593</v>
       </c>
       <c r="B593"/>
     </row>
-    <row r="594" spans="1:2">
-      <c r="A594" s="4" t="s">
+    <row r="594" hidden="1" spans="1:2">
+      <c r="A594" s="3" t="s">
         <v>594</v>
       </c>
       <c r="B594"/>
     </row>
-    <row r="595" spans="1:2">
-      <c r="A595" s="3" t="s">
+    <row r="595" hidden="1" spans="1:2">
+      <c r="A595" s="5" t="s">
         <v>595</v>
       </c>
       <c r="B595"/>
     </row>
-    <row r="596" spans="1:2">
+    <row r="596" hidden="1" spans="1:2">
       <c r="A596" s="5" t="s">
         <v>596</v>
       </c>
       <c r="B596"/>
     </row>
-    <row r="597" spans="1:2">
-      <c r="A597" s="4" t="s">
+    <row r="597" hidden="1" spans="1:2">
+      <c r="A597" s="3" t="s">
         <v>597</v>
       </c>
       <c r="B597"/>
     </row>
-    <row r="598" spans="1:2">
-      <c r="A598" s="5" t="s">
+    <row r="598" hidden="1" spans="1:2">
+      <c r="A598" s="3" t="s">
         <v>598</v>
       </c>
       <c r="B598"/>
     </row>
-    <row r="599" spans="1:2">
+    <row r="599" hidden="1" spans="1:2">
       <c r="A599" s="3" t="s">
         <v>599</v>
       </c>
       <c r="B599"/>
     </row>
-    <row r="600" spans="1:2">
-      <c r="A600" s="3" t="s">
+    <row r="600" hidden="1" spans="1:2">
+      <c r="A600" s="5" t="s">
         <v>600</v>
       </c>
       <c r="B600"/>
     </row>
-    <row r="601" spans="1:2">
-      <c r="A601" s="5" t="s">
+    <row r="601" hidden="1" spans="1:2">
+      <c r="A601" s="3" t="s">
         <v>601</v>
       </c>
       <c r="B601"/>
     </row>
-    <row r="602" spans="1:2">
+    <row r="602" hidden="1" spans="1:2">
       <c r="A602" s="3" t="s">
         <v>602</v>
       </c>
       <c r="B602"/>
     </row>
-    <row r="603" spans="1:2">
-      <c r="A603" s="3" t="s">
+    <row r="603" hidden="1" spans="1:2">
+      <c r="A603" s="4" t="s">
         <v>603</v>
       </c>
       <c r="B603"/>
     </row>
-    <row r="604" spans="1:2">
-      <c r="A604" s="3" t="s">
+    <row r="604" hidden="1" spans="1:2">
+      <c r="A604" s="4" t="s">
         <v>604</v>
       </c>
       <c r="B604"/>
     </row>
-    <row r="605" spans="1:2">
+    <row r="605" hidden="1" spans="1:2">
       <c r="A605" s="3" t="s">
         <v>605</v>
       </c>
       <c r="B605"/>
     </row>
-    <row r="606" spans="1:2">
-      <c r="A606" s="3" t="s">
+    <row r="606" hidden="1" spans="1:2">
+      <c r="A606" s="4" t="s">
         <v>606</v>
       </c>
       <c r="B606"/>
     </row>
-    <row r="607" spans="1:2">
-      <c r="A607" s="4" t="s">
+    <row r="607" hidden="1" spans="1:2">
+      <c r="A607" s="3" t="s">
         <v>607</v>
       </c>
       <c r="B607"/>
     </row>
-    <row r="608" spans="1:2">
+    <row r="608" hidden="1" spans="1:2">
       <c r="A608" s="3" t="s">
         <v>608</v>
       </c>
       <c r="B608"/>
     </row>
-    <row r="609" spans="1:2">
+    <row r="609" hidden="1" spans="1:2">
       <c r="A609" s="5" t="s">
         <v>609</v>
       </c>
@@ -6965,883 +6924,825 @@
       </c>
       <c r="B610"/>
     </row>
-    <row r="611" spans="1:2">
+    <row r="611" hidden="1" spans="1:2">
       <c r="A611" s="3" t="s">
         <v>611</v>
       </c>
       <c r="B611"/>
     </row>
-    <row r="612" spans="1:2">
+    <row r="612" hidden="1" spans="1:2">
       <c r="A612" s="3" t="s">
         <v>612</v>
       </c>
       <c r="B612"/>
     </row>
-    <row r="613" spans="1:2">
-      <c r="A613" s="3" t="s">
+    <row r="613" hidden="1" spans="1:2">
+      <c r="A613" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B613"/>
     </row>
-    <row r="614" spans="1:2">
-      <c r="A614" s="5" t="s">
+    <row r="614" hidden="1" spans="1:2">
+      <c r="A614" s="3" t="s">
         <v>614</v>
       </c>
       <c r="B614"/>
     </row>
-    <row r="615" spans="1:2">
+    <row r="615" hidden="1" spans="1:2">
       <c r="A615" s="3" t="s">
         <v>615</v>
       </c>
       <c r="B615"/>
     </row>
-    <row r="616" spans="1:2">
+    <row r="616" hidden="1" spans="1:2">
       <c r="A616" s="3" t="s">
         <v>616</v>
       </c>
       <c r="B616"/>
     </row>
-    <row r="617" spans="1:2">
-      <c r="A617" s="4" t="s">
+    <row r="617" hidden="1" spans="1:2">
+      <c r="A617" s="3" t="s">
         <v>617</v>
       </c>
       <c r="B617"/>
     </row>
-    <row r="618" spans="1:2">
-      <c r="A618" s="4" t="s">
+    <row r="618" hidden="1" spans="1:2">
+      <c r="A618" s="3" t="s">
         <v>618</v>
       </c>
       <c r="B618"/>
     </row>
-    <row r="619" spans="1:2">
+    <row r="619" hidden="1" spans="1:2">
       <c r="A619" s="3" t="s">
         <v>619</v>
       </c>
       <c r="B619"/>
     </row>
-    <row r="620" spans="1:2">
-      <c r="A620" s="4" t="s">
+    <row r="620" hidden="1" spans="1:2">
+      <c r="A620" s="3" t="s">
         <v>620</v>
       </c>
       <c r="B620"/>
     </row>
-    <row r="621" spans="1:2">
+    <row r="621" hidden="1" spans="1:2">
       <c r="A621" s="3" t="s">
         <v>621</v>
       </c>
       <c r="B621"/>
     </row>
-    <row r="622" spans="1:2">
-      <c r="A622" s="3" t="s">
+    <row r="622" hidden="1" spans="1:2">
+      <c r="A622" s="4" t="s">
         <v>622</v>
       </c>
       <c r="B622"/>
     </row>
-    <row r="623" spans="1:2">
-      <c r="A623" s="5" t="s">
+    <row r="623" hidden="1" spans="1:2">
+      <c r="A623" s="3" t="s">
         <v>623</v>
       </c>
       <c r="B623"/>
     </row>
-    <row r="624" spans="1:2">
-      <c r="A624" s="5" t="s">
+    <row r="624" hidden="1" spans="1:2">
+      <c r="A624" s="4" t="s">
         <v>624</v>
       </c>
       <c r="B624"/>
     </row>
-    <row r="625" spans="1:2">
-      <c r="A625" s="3" t="s">
+    <row r="625" hidden="1" spans="1:2">
+      <c r="A625" s="5" t="s">
         <v>625</v>
       </c>
       <c r="B625"/>
     </row>
-    <row r="626" spans="1:2">
-      <c r="A626" s="3" t="s">
+    <row r="626" hidden="1" spans="1:2">
+      <c r="A626" s="5" t="s">
         <v>626</v>
       </c>
       <c r="B626"/>
     </row>
-    <row r="627" spans="1:2">
-      <c r="A627" s="5" t="s">
+    <row r="627" hidden="1" spans="1:2">
+      <c r="A627" s="3" t="s">
         <v>627</v>
       </c>
       <c r="B627"/>
     </row>
-    <row r="628" spans="1:2">
-      <c r="A628" s="3" t="s">
+    <row r="628" hidden="1" spans="1:2">
+      <c r="A628" s="4" t="s">
         <v>628</v>
       </c>
       <c r="B628"/>
     </row>
-    <row r="629" spans="1:2">
+    <row r="629" hidden="1" spans="1:2">
       <c r="A629" s="3" t="s">
         <v>629</v>
       </c>
       <c r="B629"/>
     </row>
-    <row r="630" spans="1:2">
-      <c r="A630" s="3" t="s">
+    <row r="630" hidden="1" spans="1:2">
+      <c r="A630" s="5" t="s">
         <v>630</v>
       </c>
       <c r="B630"/>
     </row>
-    <row r="631" spans="1:2">
-      <c r="A631" s="3" t="s">
+    <row r="631" hidden="1" spans="1:2">
+      <c r="A631" s="5" t="s">
         <v>631</v>
       </c>
       <c r="B631"/>
     </row>
-    <row r="632" spans="1:2">
-      <c r="A632" s="3" t="s">
+    <row r="632" hidden="1" spans="1:2">
+      <c r="A632" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B632"/>
     </row>
     <row r="633" spans="1:2">
-      <c r="A633" s="3" t="s">
+      <c r="A633" s="5" t="s">
         <v>633</v>
       </c>
       <c r="B633"/>
     </row>
-    <row r="634" spans="1:2">
+    <row r="634" hidden="1" spans="1:2">
       <c r="A634" s="3" t="s">
         <v>634</v>
       </c>
       <c r="B634"/>
     </row>
-    <row r="635" spans="1:2">
+    <row r="635" hidden="1" spans="1:2">
       <c r="A635" s="3" t="s">
         <v>635</v>
       </c>
       <c r="B635"/>
     </row>
-    <row r="636" spans="1:2">
-      <c r="A636" s="4" t="s">
+    <row r="636" hidden="1" spans="1:2">
+      <c r="A636" s="3" t="s">
         <v>636</v>
       </c>
       <c r="B636"/>
     </row>
-    <row r="637" spans="1:2">
+    <row r="637" hidden="1" spans="1:2">
       <c r="A637" s="3" t="s">
         <v>637</v>
       </c>
       <c r="B637"/>
     </row>
-    <row r="638" spans="1:2">
-      <c r="A638" s="4" t="s">
+    <row r="638" hidden="1" spans="1:2">
+      <c r="A638" s="3" t="s">
         <v>638</v>
       </c>
       <c r="B638"/>
     </row>
-    <row r="639" spans="1:2">
-      <c r="A639" s="5" t="s">
+    <row r="639" hidden="1" spans="1:2">
+      <c r="A639" s="3" t="s">
         <v>639</v>
       </c>
       <c r="B639"/>
     </row>
-    <row r="640" spans="1:2">
-      <c r="A640" s="5" t="s">
+    <row r="640" hidden="1" spans="1:2">
+      <c r="A640" s="3" t="s">
         <v>640</v>
       </c>
       <c r="B640"/>
     </row>
-    <row r="641" spans="1:2">
+    <row r="641" hidden="1" spans="1:2">
       <c r="A641" s="3" t="s">
         <v>641</v>
       </c>
       <c r="B641"/>
     </row>
-    <row r="642" spans="1:2">
-      <c r="A642" s="4" t="s">
+    <row r="642" hidden="1" spans="1:2">
+      <c r="A642" s="3" t="s">
         <v>642</v>
       </c>
       <c r="B642"/>
     </row>
-    <row r="643" spans="1:2">
-      <c r="A643" s="3" t="s">
+    <row r="643" hidden="1" spans="1:2">
+      <c r="A643" s="4" t="s">
         <v>643</v>
       </c>
       <c r="B643"/>
     </row>
-    <row r="644" spans="1:2">
-      <c r="A644" s="5" t="s">
+    <row r="644" hidden="1" spans="1:2">
+      <c r="A644" s="3" t="s">
         <v>644</v>
       </c>
       <c r="B644"/>
     </row>
-    <row r="645" spans="1:2">
-      <c r="A645" s="5" t="s">
+    <row r="645" hidden="1" spans="1:2">
+      <c r="A645" s="4" t="s">
         <v>645</v>
       </c>
       <c r="B645"/>
     </row>
-    <row r="646" spans="1:2">
-      <c r="A646" s="4" t="s">
+    <row r="646" hidden="1" spans="1:2">
+      <c r="A646" s="3" t="s">
         <v>646</v>
       </c>
       <c r="B646"/>
     </row>
-    <row r="647" spans="1:2">
-      <c r="A647" s="5" t="s">
+    <row r="647" hidden="1" spans="1:2">
+      <c r="A647" s="3" t="s">
         <v>647</v>
       </c>
       <c r="B647"/>
     </row>
-    <row r="648" spans="1:2">
+    <row r="648" hidden="1" spans="1:2">
       <c r="A648" s="3" t="s">
         <v>648</v>
       </c>
       <c r="B648"/>
     </row>
-    <row r="649" spans="1:2">
+    <row r="649" hidden="1" spans="1:2">
       <c r="A649" s="3" t="s">
         <v>649</v>
       </c>
       <c r="B649"/>
     </row>
-    <row r="650" spans="1:2">
-      <c r="A650" s="3" t="s">
+    <row r="650" hidden="1" spans="1:2">
+      <c r="A650" s="5" t="s">
         <v>650</v>
       </c>
       <c r="B650"/>
     </row>
-    <row r="651" spans="1:2">
+    <row r="651" hidden="1" spans="1:2">
       <c r="A651" s="3" t="s">
         <v>651</v>
       </c>
       <c r="B651"/>
     </row>
-    <row r="652" spans="1:2">
+    <row r="652" hidden="1" spans="1:2">
       <c r="A652" s="3" t="s">
         <v>652</v>
       </c>
       <c r="B652"/>
     </row>
-    <row r="653" spans="1:2">
+    <row r="653" hidden="1" spans="1:2">
       <c r="A653" s="3" t="s">
         <v>653</v>
       </c>
       <c r="B653"/>
     </row>
-    <row r="654" spans="1:2">
+    <row r="654" hidden="1" spans="1:2">
       <c r="A654" s="3" t="s">
         <v>654</v>
       </c>
       <c r="B654"/>
     </row>
-    <row r="655" spans="1:2">
+    <row r="655" hidden="1" spans="1:2">
       <c r="A655" s="3" t="s">
         <v>655</v>
       </c>
       <c r="B655"/>
     </row>
-    <row r="656" spans="1:2">
+    <row r="656" hidden="1" spans="1:2">
       <c r="A656" s="3" t="s">
         <v>656</v>
       </c>
       <c r="B656"/>
     </row>
-    <row r="657" spans="1:2">
+    <row r="657" hidden="1" spans="1:2">
       <c r="A657" s="4" t="s">
         <v>657</v>
       </c>
       <c r="B657"/>
     </row>
-    <row r="658" spans="1:2">
-      <c r="A658" s="3" t="s">
+    <row r="658" hidden="1" spans="1:2">
+      <c r="A658" s="4" t="s">
         <v>658</v>
       </c>
       <c r="B658"/>
     </row>
-    <row r="659" spans="1:2">
-      <c r="A659" s="4" t="s">
+    <row r="659" hidden="1" spans="1:2">
+      <c r="A659" s="3" t="s">
         <v>659</v>
       </c>
       <c r="B659"/>
     </row>
-    <row r="660" spans="1:2">
+    <row r="660" hidden="1" spans="1:2">
       <c r="A660" s="3" t="s">
         <v>660</v>
       </c>
       <c r="B660"/>
     </row>
-    <row r="661" spans="1:2">
+    <row r="661" hidden="1" spans="1:2">
       <c r="A661" s="3" t="s">
         <v>661</v>
       </c>
       <c r="B661"/>
     </row>
-    <row r="662" spans="1:2">
+    <row r="662" hidden="1" spans="1:2">
       <c r="A662" s="3" t="s">
         <v>662</v>
       </c>
       <c r="B662"/>
     </row>
-    <row r="663" spans="1:2">
+    <row r="663" hidden="1" spans="1:2">
       <c r="A663" s="3" t="s">
         <v>663</v>
       </c>
       <c r="B663"/>
     </row>
-    <row r="664" spans="1:2">
-      <c r="A664" s="5" t="s">
+    <row r="664" hidden="1" spans="1:2">
+      <c r="A664" s="3" t="s">
         <v>664</v>
       </c>
       <c r="B664"/>
     </row>
-    <row r="665" spans="1:2">
-      <c r="A665" s="3" t="s">
+    <row r="665" hidden="1" spans="1:2">
+      <c r="A665" s="5" t="s">
         <v>665</v>
       </c>
       <c r="B665"/>
     </row>
-    <row r="666" spans="1:2">
-      <c r="A666" s="3" t="s">
+    <row r="666" hidden="1" spans="1:2">
+      <c r="A666" s="5" t="s">
         <v>666</v>
       </c>
       <c r="B666"/>
     </row>
-    <row r="667" spans="1:2">
+    <row r="667" hidden="1" spans="1:2">
       <c r="A667" s="3" t="s">
         <v>667</v>
       </c>
       <c r="B667"/>
     </row>
-    <row r="668" spans="1:2">
+    <row r="668" hidden="1" spans="1:2">
       <c r="A668" s="3" t="s">
         <v>668</v>
       </c>
       <c r="B668"/>
     </row>
-    <row r="669" spans="1:2">
+    <row r="669" hidden="1" spans="1:2">
       <c r="A669" s="3" t="s">
         <v>669</v>
       </c>
       <c r="B669"/>
     </row>
-    <row r="670" spans="1:2">
+    <row r="670" hidden="1" spans="1:2">
       <c r="A670" s="3" t="s">
         <v>670</v>
       </c>
       <c r="B670"/>
     </row>
-    <row r="671" spans="1:2">
+    <row r="671" hidden="1" spans="1:2">
       <c r="A671" s="4" t="s">
         <v>671</v>
       </c>
       <c r="B671"/>
     </row>
-    <row r="672" spans="1:2">
+    <row r="672" hidden="1" spans="1:2">
       <c r="A672" s="4" t="s">
         <v>672</v>
       </c>
       <c r="B672"/>
     </row>
-    <row r="673" spans="1:2">
-      <c r="A673" s="3" t="s">
+    <row r="673" hidden="1" spans="1:2">
+      <c r="A673" s="4" t="s">
         <v>673</v>
       </c>
       <c r="B673"/>
     </row>
-    <row r="674" spans="1:2">
-      <c r="A674" s="3" t="s">
+    <row r="674" hidden="1" spans="1:2">
+      <c r="A674" s="4" t="s">
         <v>674</v>
       </c>
       <c r="B674"/>
     </row>
-    <row r="675" spans="1:2">
+    <row r="675" hidden="1" spans="1:2">
       <c r="A675" s="3" t="s">
         <v>675</v>
       </c>
       <c r="B675"/>
     </row>
-    <row r="676" spans="1:2">
+    <row r="676" hidden="1" spans="1:1">
       <c r="A676" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B676"/>
-    </row>
-    <row r="677" spans="1:2">
-      <c r="A677" s="3" t="s">
+    </row>
+    <row r="677" hidden="1" spans="1:2">
+      <c r="A677" s="5" t="s">
         <v>677</v>
       </c>
       <c r="B677"/>
     </row>
-    <row r="678" spans="1:2">
-      <c r="A678" s="3" t="s">
+    <row r="678" hidden="1" spans="1:2">
+      <c r="A678" s="5" t="s">
         <v>678</v>
       </c>
       <c r="B678"/>
     </row>
-    <row r="679" spans="1:2">
-      <c r="A679" s="5" t="s">
+    <row r="679" hidden="1" spans="1:2">
+      <c r="A679" s="3" t="s">
         <v>679</v>
       </c>
       <c r="B679"/>
     </row>
-    <row r="680" spans="1:2">
-      <c r="A680" s="5" t="s">
+    <row r="680" hidden="1" spans="1:2">
+      <c r="A680" s="4" t="s">
         <v>680</v>
       </c>
       <c r="B680"/>
     </row>
-    <row r="681" spans="1:2">
-      <c r="A681" s="3" t="s">
+    <row r="681" hidden="1" spans="1:2">
+      <c r="A681" s="5" t="s">
         <v>681</v>
       </c>
       <c r="B681"/>
     </row>
-    <row r="682" spans="1:2">
+    <row r="682" hidden="1" spans="1:2">
       <c r="A682" s="3" t="s">
         <v>682</v>
       </c>
       <c r="B682"/>
     </row>
-    <row r="683" spans="1:2">
-      <c r="A683" s="3" t="s">
+    <row r="683" hidden="1" spans="1:2">
+      <c r="A683" s="4" t="s">
         <v>683</v>
       </c>
       <c r="B683"/>
     </row>
-    <row r="684" spans="1:2">
+    <row r="684" hidden="1" spans="1:2">
       <c r="A684" s="3" t="s">
         <v>684</v>
       </c>
       <c r="B684"/>
     </row>
-    <row r="685" spans="1:2">
-      <c r="A685" s="4" t="s">
+    <row r="685" hidden="1" spans="1:2">
+      <c r="A685" s="3" t="s">
         <v>685</v>
       </c>
       <c r="B685"/>
     </row>
-    <row r="686" spans="1:2">
-      <c r="A686" s="4" t="s">
+    <row r="686" hidden="1" spans="1:2">
+      <c r="A686" s="3" t="s">
         <v>686</v>
       </c>
       <c r="B686"/>
     </row>
-    <row r="687" spans="1:2">
-      <c r="A687" s="4" t="s">
+    <row r="687" hidden="1" spans="1:2">
+      <c r="A687" s="5" t="s">
         <v>687</v>
       </c>
       <c r="B687"/>
     </row>
-    <row r="688" spans="1:2">
-      <c r="A688" s="4" t="s">
+    <row r="688" hidden="1" spans="1:2">
+      <c r="A688" s="3" t="s">
         <v>688</v>
       </c>
       <c r="B688"/>
     </row>
-    <row r="689" spans="1:2">
+    <row r="689" hidden="1" spans="1:2">
       <c r="A689" s="3" t="s">
         <v>689</v>
       </c>
       <c r="B689"/>
     </row>
-    <row r="690" spans="1:1">
+    <row r="690" hidden="1" spans="1:2">
       <c r="A690" s="3" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="691" spans="1:2">
-      <c r="A691" s="5" t="s">
+      <c r="B690"/>
+    </row>
+    <row r="691" hidden="1" spans="1:2">
+      <c r="A691" s="3" t="s">
         <v>691</v>
       </c>
       <c r="B691"/>
     </row>
-    <row r="692" spans="1:2">
-      <c r="A692" s="5" t="s">
+    <row r="692" hidden="1" spans="1:2">
+      <c r="A692" s="4" t="s">
         <v>692</v>
       </c>
       <c r="B692"/>
     </row>
-    <row r="693" spans="1:2">
+    <row r="693" hidden="1" spans="1:2">
       <c r="A693" s="3" t="s">
         <v>693</v>
       </c>
       <c r="B693"/>
     </row>
-    <row r="694" spans="1:2">
-      <c r="A694" s="4" t="s">
+    <row r="694" hidden="1" spans="1:2">
+      <c r="A694" s="3" t="s">
         <v>694</v>
       </c>
       <c r="B694"/>
     </row>
-    <row r="695" spans="1:2">
-      <c r="A695" s="5" t="s">
+    <row r="695" hidden="1" spans="1:2">
+      <c r="A695" s="4" t="s">
         <v>695</v>
       </c>
       <c r="B695"/>
     </row>
-    <row r="696" spans="1:2">
-      <c r="A696" s="3" t="s">
+    <row r="696" hidden="1" spans="1:2">
+      <c r="A696" s="4" t="s">
         <v>696</v>
       </c>
       <c r="B696"/>
     </row>
-    <row r="697" spans="1:2">
+    <row r="697" hidden="1" spans="1:2">
       <c r="A697" s="4" t="s">
         <v>697</v>
       </c>
       <c r="B697"/>
     </row>
-    <row r="698" spans="1:2">
-      <c r="A698" s="3" t="s">
+    <row r="698" hidden="1" spans="1:2">
+      <c r="A698" s="4" t="s">
         <v>698</v>
       </c>
       <c r="B698"/>
     </row>
-    <row r="699" spans="1:2">
+    <row r="699" hidden="1" spans="1:2">
       <c r="A699" s="3" t="s">
         <v>699</v>
       </c>
       <c r="B699"/>
     </row>
-    <row r="700" spans="1:2">
-      <c r="A700" s="3" t="s">
+    <row r="700" hidden="1" spans="1:2">
+      <c r="A700" s="4" t="s">
         <v>700</v>
       </c>
       <c r="B700"/>
     </row>
-    <row r="701" spans="1:2">
-      <c r="A701" s="5" t="s">
+    <row r="701" hidden="1" spans="1:2">
+      <c r="A701" s="4" t="s">
         <v>701</v>
       </c>
       <c r="B701"/>
     </row>
-    <row r="702" spans="1:2">
-      <c r="A702" s="3" t="s">
+    <row r="702" hidden="1" spans="1:2">
+      <c r="A702" s="4" t="s">
         <v>702</v>
       </c>
       <c r="B702"/>
     </row>
-    <row r="703" spans="1:2">
-      <c r="A703" s="3" t="s">
+    <row r="703" hidden="1" spans="1:2">
+      <c r="A703" s="4" t="s">
         <v>703</v>
       </c>
       <c r="B703"/>
     </row>
-    <row r="704" spans="1:2">
-      <c r="A704" s="3" t="s">
+    <row r="704" hidden="1" spans="1:2">
+      <c r="A704" s="5" t="s">
         <v>704</v>
       </c>
       <c r="B704"/>
     </row>
-    <row r="705" spans="1:2">
-      <c r="A705" s="3" t="s">
+    <row r="705" hidden="1" spans="1:2">
+      <c r="A705" s="5" t="s">
         <v>705</v>
       </c>
       <c r="B705"/>
     </row>
-    <row r="706" spans="1:2">
-      <c r="A706" s="4" t="s">
+    <row r="706" hidden="1" spans="1:2">
+      <c r="A706" s="5" t="s">
         <v>706</v>
       </c>
       <c r="B706"/>
     </row>
-    <row r="707" spans="1:2">
-      <c r="A707" s="3" t="s">
+    <row r="707" hidden="1" spans="1:2">
+      <c r="A707" s="5" t="s">
         <v>707</v>
       </c>
       <c r="B707"/>
     </row>
-    <row r="708" spans="1:2">
-      <c r="A708" s="3" t="s">
+    <row r="708" hidden="1" spans="1:2">
+      <c r="A708" s="4" t="s">
         <v>708</v>
       </c>
       <c r="B708"/>
     </row>
-    <row r="709" spans="1:2">
-      <c r="A709" s="4" t="s">
+    <row r="709" hidden="1" spans="1:2">
+      <c r="A709" s="5" t="s">
         <v>709</v>
       </c>
       <c r="B709"/>
     </row>
-    <row r="710" spans="1:2">
-      <c r="A710" s="4" t="s">
+    <row r="710" hidden="1" spans="1:2">
+      <c r="A710" s="5" t="s">
         <v>710</v>
       </c>
       <c r="B710"/>
     </row>
-    <row r="711" spans="1:2">
+    <row r="711" hidden="1" spans="1:2">
       <c r="A711" s="4" t="s">
         <v>711</v>
       </c>
       <c r="B711"/>
     </row>
-    <row r="712" spans="1:2">
-      <c r="A712" s="4" t="s">
+    <row r="712" hidden="1" spans="1:2">
+      <c r="A712" s="3" t="s">
         <v>712</v>
       </c>
       <c r="B712"/>
     </row>
-    <row r="713" spans="1:2">
+    <row r="713" hidden="1" spans="1:2">
       <c r="A713" s="3" t="s">
         <v>713</v>
       </c>
       <c r="B713"/>
     </row>
-    <row r="714" spans="1:2">
-      <c r="A714" s="4" t="s">
+    <row r="714" hidden="1" spans="1:2">
+      <c r="A714" s="3" t="s">
         <v>714</v>
       </c>
       <c r="B714"/>
     </row>
-    <row r="715" spans="1:2">
-      <c r="A715" s="4" t="s">
+    <row r="715" hidden="1" spans="1:2">
+      <c r="A715" s="5" t="s">
         <v>715</v>
       </c>
       <c r="B715"/>
     </row>
-    <row r="716" spans="1:2">
+    <row r="716" hidden="1" spans="1:2">
       <c r="A716" s="4" t="s">
         <v>716</v>
       </c>
       <c r="B716"/>
     </row>
-    <row r="717" spans="1:2">
-      <c r="A717" s="4" t="s">
+    <row r="717" hidden="1" spans="1:2">
+      <c r="A717" s="3" t="s">
         <v>717</v>
       </c>
       <c r="B717"/>
     </row>
-    <row r="718" spans="1:2">
-      <c r="A718" s="5" t="s">
+    <row r="718" hidden="1" spans="1:2">
+      <c r="A718" s="4" t="s">
         <v>718</v>
       </c>
       <c r="B718"/>
     </row>
-    <row r="719" spans="1:2">
-      <c r="A719" s="5" t="s">
+    <row r="719" hidden="1" spans="1:2">
+      <c r="A719" s="4" t="s">
         <v>719</v>
       </c>
       <c r="B719"/>
     </row>
-    <row r="720" spans="1:2">
-      <c r="A720" s="5" t="s">
+    <row r="720" hidden="1" spans="1:2">
+      <c r="A720" s="4" t="s">
         <v>720</v>
       </c>
       <c r="B720"/>
     </row>
-    <row r="721" spans="1:2">
-      <c r="A721" s="5" t="s">
+    <row r="721" hidden="1" spans="1:2">
+      <c r="A721" s="3" t="s">
         <v>721</v>
       </c>
       <c r="B721"/>
     </row>
-    <row r="722" spans="1:2">
-      <c r="A722" s="4" t="s">
+    <row r="722" hidden="1" spans="1:2">
+      <c r="A722" s="3" t="s">
         <v>722</v>
       </c>
       <c r="B722"/>
     </row>
-    <row r="723" spans="1:2">
-      <c r="A723" s="5" t="s">
+    <row r="723" hidden="1" spans="1:2">
+      <c r="A723" s="3" t="s">
         <v>723</v>
       </c>
       <c r="B723"/>
     </row>
-    <row r="724" spans="1:2">
-      <c r="A724" s="5" t="s">
+    <row r="724" hidden="1" spans="1:2">
+      <c r="A724" s="4" t="s">
         <v>724</v>
       </c>
       <c r="B724"/>
     </row>
-    <row r="725" spans="1:2">
-      <c r="A725" s="4" t="s">
+    <row r="725" hidden="1" spans="1:2">
+      <c r="A725" s="5" t="s">
         <v>725</v>
       </c>
       <c r="B725"/>
     </row>
-    <row r="726" spans="1:2">
-      <c r="A726" s="3" t="s">
+    <row r="726" hidden="1" spans="1:2">
+      <c r="A726" s="4" t="s">
         <v>726</v>
       </c>
       <c r="B726"/>
     </row>
-    <row r="727" spans="1:2">
-      <c r="A727" s="3" t="s">
+    <row r="727" hidden="1" spans="1:2">
+      <c r="A727" s="4" t="s">
         <v>727</v>
       </c>
       <c r="B727"/>
     </row>
     <row r="728" spans="1:2">
-      <c r="A728" s="3" t="s">
+      <c r="A728" s="4" t="s">
         <v>728</v>
       </c>
       <c r="B728"/>
     </row>
-    <row r="729" spans="1:2">
+    <row r="729" hidden="1" spans="1:2">
       <c r="A729" s="5" t="s">
         <v>729</v>
       </c>
       <c r="B729"/>
     </row>
-    <row r="730" spans="1:2">
-      <c r="A730" s="4" t="s">
+    <row r="730" hidden="1" spans="1:2">
+      <c r="A730" s="3" t="s">
         <v>730</v>
       </c>
       <c r="B730"/>
     </row>
-    <row r="731" spans="1:2">
+    <row r="731" hidden="1" spans="1:2">
       <c r="A731" s="3" t="s">
         <v>731</v>
       </c>
       <c r="B731"/>
     </row>
-    <row r="732" spans="1:2">
+    <row r="732" hidden="1" spans="1:2">
       <c r="A732" s="4" t="s">
         <v>732</v>
       </c>
       <c r="B732"/>
     </row>
-    <row r="733" spans="1:2">
+    <row r="733" hidden="1" spans="1:2">
       <c r="A733" s="4" t="s">
         <v>733</v>
       </c>
       <c r="B733"/>
     </row>
-    <row r="734" spans="1:2">
+    <row r="734" hidden="1" spans="1:2">
       <c r="A734" s="4" t="s">
         <v>734</v>
       </c>
       <c r="B734"/>
     </row>
-    <row r="735" spans="1:2">
-      <c r="A735" s="3" t="s">
+    <row r="735" hidden="1" spans="1:2">
+      <c r="A735" s="4" t="s">
         <v>735</v>
       </c>
       <c r="B735"/>
     </row>
-    <row r="736" spans="1:2">
-      <c r="A736" s="3" t="s">
+    <row r="736" hidden="1" spans="1:2">
+      <c r="A736" s="4" t="s">
         <v>736</v>
       </c>
       <c r="B736"/>
     </row>
-    <row r="737" spans="1:2">
-      <c r="A737" s="3" t="s">
+    <row r="737" hidden="1" spans="1:2">
+      <c r="A737" s="4" t="s">
         <v>737</v>
       </c>
       <c r="B737"/>
     </row>
-    <row r="738" spans="1:2">
-      <c r="A738" s="4" t="s">
+    <row r="738" hidden="1" spans="1:2">
+      <c r="A738" s="5" t="s">
         <v>738</v>
       </c>
       <c r="B738"/>
     </row>
-    <row r="739" spans="1:2">
-      <c r="A739" s="5" t="s">
+    <row r="739" hidden="1" spans="1:2">
+      <c r="A739" s="4" t="s">
         <v>739</v>
       </c>
       <c r="B739"/>
     </row>
-    <row r="740" spans="1:2">
+    <row r="740" hidden="1" spans="1:2">
       <c r="A740" s="4" t="s">
         <v>740</v>
       </c>
       <c r="B740"/>
     </row>
-    <row r="741" spans="1:2">
-      <c r="A741" s="4" t="s">
+    <row r="741" hidden="1" spans="1:2">
+      <c r="A741" s="3" t="s">
         <v>741</v>
       </c>
       <c r="B741"/>
     </row>
-    <row r="742" spans="1:2">
-      <c r="A742" s="4" t="s">
+    <row r="742" hidden="1" spans="1:2">
+      <c r="A742" s="5" t="s">
         <v>742</v>
       </c>
       <c r="B742"/>
     </row>
-    <row r="743" spans="1:2">
-      <c r="A743" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="B743"/>
-    </row>
-    <row r="744" spans="1:2">
-      <c r="A744" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="B744"/>
-    </row>
-    <row r="745" spans="1:2">
-      <c r="A745" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="B745"/>
-    </row>
-    <row r="746" spans="1:2">
-      <c r="A746" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="B746"/>
-    </row>
-    <row r="747" spans="1:2">
-      <c r="A747" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="B747"/>
-    </row>
-    <row r="748" spans="1:2">
-      <c r="A748" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="B748"/>
-    </row>
-    <row r="749" spans="1:2">
-      <c r="A749" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="B749"/>
-    </row>
-    <row r="750" spans="1:2">
-      <c r="A750" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="B750"/>
-    </row>
-    <row r="751" spans="1:2">
-      <c r="A751" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="B751"/>
-    </row>
-    <row r="752" spans="1:2">
-      <c r="A752" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="B752"/>
-    </row>
-    <row r="753" spans="1:2">
-      <c r="A753" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="B753"/>
-    </row>
-    <row r="754" spans="1:2">
-      <c r="A754" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="B754"/>
-    </row>
-    <row r="755" spans="1:2">
-      <c r="A755" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="B755"/>
-    </row>
-    <row r="756" spans="1:2">
-      <c r="A756" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="B756"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A756">
+  <autoFilter ref="A1:A742">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="电子体温计的设计"/>
+        <filter val="基于单片机的电火箱调温器"/>
+        <filter val="防盗与恒温系统的设计与制作"/>
+        <filter val="蔬菜公司恒温库微机监控系统"/>
+        <filter val="基于无线传输技术的室温控制系统设计"/>
+        <filter val="基于单片机的室温控制系统设计"/>
+        <filter val="基于单片机的水温控制系统设计"/>
+        <filter val="基于MCU温控智能风扇控制系统的设计"/>
+        <filter val="物联网智能温室控制系统中远程信息无线传输的研究"/>
+        <filter val="中央冷却水温控制系统"/>
+        <filter val="单片机的水温控制系统"/>
+        <filter val="基于单片机的鸡雏恒温孵化器的设计"/>
+        <filter val="红外恒温控制器的设计与制作"/>
+        <filter val="单片机水温控制系统"/>
+        <filter val="基于单片机89C52的啤酒发酵温控系统"/>
+        <filter val="太阳能热水器水温水位测控仪分析"/>
+        <filter val="数字显示式电子体温计"/>
+        <filter val="基于单片机的语音提示测温系统的研究"/>
+        <filter val="恒温箱单片机控制"/>
+        <filter val="基于MCS-51单片机温控系统设计的电阻炉"/>
+        <filter val="红外测温仪"/>
+        <filter val="基于单片机的温室电炉的控制系统"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:A2410">
